--- a/report/excel/shorts_report.xlsx
+++ b/report/excel/shorts_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="83">
   <si>
     <t>out_admin_channel</t>
   </si>
@@ -40,373 +40,578 @@
     <t>in_body</t>
   </si>
   <si>
-    <t>3298</t>
-  </si>
-  <si>
-    <t>3297</t>
-  </si>
-  <si>
-    <t>3296</t>
-  </si>
-  <si>
-    <t>3295</t>
-  </si>
-  <si>
-    <t>3294</t>
-  </si>
-  <si>
-    <t>3293</t>
-  </si>
-  <si>
-    <t>3292</t>
-  </si>
-  <si>
-    <t>3291</t>
-  </si>
-  <si>
-    <t>3290</t>
-  </si>
-  <si>
-    <t>3289</t>
-  </si>
-  <si>
-    <t>3288</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>50714</t>
-  </si>
-  <si>
-    <t>50696</t>
-  </si>
-  <si>
-    <t>50692</t>
-  </si>
-  <si>
-    <t>50676</t>
-  </si>
-  <si>
-    <t>50657</t>
-  </si>
-  <si>
-    <t>50655</t>
-  </si>
-  <si>
-    <t>50652</t>
-  </si>
-  <si>
-    <t>50578</t>
-  </si>
-  <si>
-    <t>50569</t>
-  </si>
-  <si>
-    <t>50518</t>
-  </si>
-  <si>
-    <t>53322</t>
-  </si>
-  <si>
-    <t>HR-менеджер</t>
-  </si>
-  <si>
-    <t>Оператор call центра</t>
-  </si>
-  <si>
-    <t>HR менеджер / Рекрутер / Специалист по подбору персонала</t>
-  </si>
-  <si>
-    <t>Менеджер по поиску пероснала и кадрам</t>
-  </si>
-  <si>
-    <t>HR менеджер</t>
-  </si>
-  <si>
-    <t>Рекрутер/Менеджер по подбору персонала (HR)</t>
-  </si>
-  <si>
-    <t>Software Developer</t>
-  </si>
-  <si>
-    <t>SAP ERP Human Capital Management (HCM)</t>
-  </si>
-  <si>
-    <t>HR tech sales</t>
-  </si>
-  <si>
-    <t>HR &amp; Admin Manager</t>
-  </si>
-  <si>
-    <t>Публикатор: Alina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Компания ООО "Пэй-Толл" ищет HR-менеджера на удаленную частичную занятость. Наша компания занимается обработкой данных и предоставлением услуг по размещению информации на web-порталах. Требуется человек с желанием развиваться в HR-сфере.
+    <t>53260</t>
+  </si>
+  <si>
+    <t>53086</t>
+  </si>
+  <si>
+    <t>53084</t>
+  </si>
+  <si>
+    <t>53146</t>
+  </si>
+  <si>
+    <t>53614</t>
+  </si>
+  <si>
+    <t>53491</t>
+  </si>
+  <si>
+    <t>53748</t>
+  </si>
+  <si>
+    <t>53465</t>
+  </si>
+  <si>
+    <t>53790</t>
+  </si>
+  <si>
+    <t>53645</t>
+  </si>
+  <si>
+    <t>53573</t>
+  </si>
+  <si>
+    <t>53605</t>
+  </si>
+  <si>
+    <t>53677</t>
+  </si>
+  <si>
+    <t>53988</t>
+  </si>
+  <si>
+    <t>53977</t>
+  </si>
+  <si>
+    <t>53978</t>
+  </si>
+  <si>
+    <t>54227</t>
+  </si>
+  <si>
+    <t>54283</t>
+  </si>
+  <si>
+    <t>54309</t>
+  </si>
+  <si>
+    <t>54380</t>
+  </si>
+  <si>
+    <t>54394</t>
+  </si>
+  <si>
+    <t>54410</t>
+  </si>
+  <si>
+    <t>54439</t>
+  </si>
+  <si>
+    <t>54468</t>
+  </si>
+  <si>
+    <t>54530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Екатеринбург #офис #вакансия #DS #ML #временныеряды  </t>
+  </si>
+  <si>
+    <t>📂 Project Manager — BisPro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#дайджест #marketing #manager </t>
+  </si>
+  <si>
+    <t>#вакансия  #работа #QA  #нагрузочноетестирование #perfomance</t>
+  </si>
+  <si>
+    <t>Search Evaluator</t>
+  </si>
+  <si>
+    <t>Product Manager</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>Technical Senior Project Manager</t>
+  </si>
+  <si>
+    <t>Product Manager (getUNIQ)</t>
+  </si>
+  <si>
+    <t>Руководитель проектов (удаленная работа)</t>
+  </si>
+  <si>
+    <t>Project Manager (удаленная работа)</t>
+  </si>
+  <si>
+    <t>Project Manager (тренер курсов по управлению проектами в IT)</t>
+  </si>
+  <si>
+    <t>Licensed practical Nurse</t>
+  </si>
+  <si>
+    <t>Project Manager eCommerce</t>
+  </si>
+  <si>
+    <t>Test Manager</t>
+  </si>
+  <si>
+    <t>Руководитель по работе с маркетплейсом WB/Руководитель направления E-commerce (удаленная работа)</t>
+  </si>
+  <si>
+    <t>IT Project Manager (удаленная работа)</t>
+  </si>
+  <si>
+    <t>Project manager (удаленно)</t>
+  </si>
+  <si>
+    <t>Менеджер по персоналу / Менеджер проекта (удаленная работа)</t>
+  </si>
+  <si>
+    <t>Project-manager Wildberries (удаленная работа)</t>
+  </si>
+  <si>
+    <t>Руководитель проекта (BigData) (удаленная работа)</t>
+  </si>
+  <si>
+    <t>Project manager/Менеджер проекта (Беттинг) (удаленная работа)</t>
+  </si>
+  <si>
+    <t>Руководитель службы/руководитель направления (удаленная работа)</t>
+  </si>
+  <si>
+    <t>Менеджер интернет-проектов/оператор Пк на удаленную работу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Формат: офис (локация Екатеринбург)  
+Должность: Руководитель направления по исследованию данных  
+Заработная плата: от 200 000 ₽ на руки + бонусы  
+Задачи:  
+• Исследовать логику бизнес-процессов, выделять базовые составляющие и взаимосвязи между ними  
+• Формулировать постановку предиктивных задач и контролировать сроки их выполнения командой исследователей данных.                                                   
+• Выдвигать гипотезы и проверять их при помощи инструментов графического и статистического анализа данных  
+• Разрабатывать предиктивные модели, используя эконометрические методы, статистические методы и методы машинного обучения  
+• Презентовать и защищать логику и метрики качества моделей перед проектной командой и заказчиками предиктивных моделей  
+• Контролировать качество реализации предиктивных моделей на этапе внедрения модели  
+• Проводить исследования в области прикладных математических алгоритмов и методов, используемых в задачах машинного обучения.  
+Ожидания от соискателя:  
+• Опыт применения методов машинного обучения для решения задач прогнозирования, реализованные проекты  
+• Понимание логики работы банковских продуктов  
+• Опыт управления командой разработки предиктивных решений  
+• Уверенные знания в области математической статистики, теории вероятностей, методов машинного обучения и анализа данных  
+• Умение грамотно структурировать и презентовать информацию  
+• Стек: Python, SQL  
+• Опыт работы с библиотеками: Sklearn, Pandas, Statsmodels, Xgboost/Lightgbm/Catboost, RandomForest.  
+Работа у нас это:  
+• Работа в команде экспертов и профессионалов своего дела  
+• Официально оформление по ТК РФ  
+• Возможность работы с новыми технологиями  
+• Обучение за счёт компании  
+• Расширенный ДМС со стоматологией  
+• Корпоративный спортзал и скидки в спортзалы-партнеры 
+Контакт: @lightelen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Удалёнка, от 50.000р.
+🗞 Что делать?
+• Работа с подрядчиками и правильное прописывание ТЗ (тексты, продающие видео, SMM, сборка воронок, трафик).
+• Выполнение операционных и технических задач проекта.
+• Составление регламентов по работе команды.
+• Письмо текстов к постам, сценариев.
+• Разработка контент-плана.
+💬 Какие требования?
+• Опыт успешных запусков и масштабирования онлайн-школ.
+• Опыт работы с платформой GetCourse.
+• Умение работать в команде.
+• Составление регламентов по работе команды.
+• Прохождение обучения у Маричевой, Афониной или Accel.
+📩 Куда откликаться?
+@danilmayorov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Вакансии в Kodland 
+🌎Удалённая работа из любой точки мира!
+Kodland - международная онлайн-школа по обучению программированию, цифровому творчеству и базовым компьютерным знаниям. 
+🔹Project Manager (LatAm)
+🔹Junior Project Manager (LatAm)
+Marketing:
+🔹Senior User Acquisition Manager
+🔹CIS Marketing Lead
+🔹Senior User Acqquisition Manager
+🔹Growth Marketing Manager
+🔹Global Paid Social Lead
+🔹CIS Chief Marketing Officer
+🔹Social Media Marketing Manager 
+Engineering:
+🔹Development Team Lead 
+Контакты для отклика: 
+Telegram: @kodland_jobs
+Почта: natalia.belokonskaya@kodland.team
+Свежие вакансии для релокации на Young Relocate✈️</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+🔥Вакансия: Руководитель направления нагрузочного тестирования🔥
+💰 до 420к
+Название компании: Selecty IT
+Формат работы: удаленный
+Занятость: полная
+💌Контакты: @NickyJordan
+Всем привет! ✌️
+Я нахожусь в поиске Руководителя направления по производительности на проекты Банка ТОП-10 
+🔴Основные обязанности на проекте:
+· Обеспечение прозрачности, качества, выдерживания сроков работ по нагрузочному тестированию и оптимизации производительности систем.
+· Курирование организационное и техническое работ менеджеров по производительности в рамках обозначенного направления.
+· Развитие методологий и инструментов, использующихся для контроля производительности
+🔴Цели:
+· Организация деятельности направления производительности.
+· Распределение ресурсов внутри направления исходя из приоритета задач.
+· Подбор, обучение, менторство и развитие менеджеров по производительности
+· Контроль производительности по 5 или более ИТ системам в рамках своего направления 
+· Распределение задач исходя из их приоритета, контроль качества и сроки их выполнения, оказание экспертной помощи при их выполнении менеджерам по производительности
+· Обеспечение прозрачности процессов, связанных с производительностью, для направления;
+· Ведение в части производительности пилотных проектов по полностью новым для Банка направлениям;
+· Решение организационно, в рамках своей экспертизы, сложных технических проблем,
+возникающих в промышленной эксплуатации или нагрузочном тестировании по своему и смежным направлениям;
+· Развитие системы мониторинга и инструментов автоматизации, используемых подразделением и в промышленной эксплуатации;
+· Организация взаимодействия с бизнес-заказчиками.
+· Функциональное руководство от 5ти до 8ми сотрудников (менеджеров по производительности)
+🔴Требования:
+· хорошее знание и понимание архитектуры бизнес систем;
+· опыт работы с HP Performance Center или аналогами;
+· опыт публичных выступлений и презентаций;
+· опыт профилирования промышленных систем;
+· опыт анализа проблем производительности серверов приложений и баз данных в популярном технологическом стеке ( Oracle , SQL Server , Postgres, IIS, WAS) не менее 2 лет;
+· хорошие организаторские способности;
+· опыт оптимизации производительности крупных ИТ систем от 3 лет;
+· опыт нагрузочного тестирования от 4 лет;
+· наличие экспертизы по производительности по заметной группе ИТ систем;
+· умение находить верную причину и решать проблемы (problem solving);
+· опыт управления коллективом от 5 до 10 человек
+· опыт неоднократного решения "сквозных проблем" возникающих сразу в нескольких системах (хороший problem solver);
+· опыт автоматизации с использованием Jenkins, Ansible или аналогов не менее 1 года;
+🔴Условия:
+Официальное оформление в IT-компанию
+Предоставление техники для работы
+Удаленная работа
+Официальное оформление по ТК РФ ( также возможно заключение договора ГПХ или с ИП)
+ДМС со стоматологией
+Скидки на изучение иностранных языков от Skyeng
+Скидки на фитнес от Xfit
+ЗП до 420 000 руб/мес (зависит от опыта)
+Обсудим?
+💌 Напиши мне @NickyJordan</t>
+  </si>
+  <si>
+    <t>Do you like reading financial news and learning about the ebbs and flows of various financial markets?  We do too! Come and join us at Appen!
+Why Appen?
+You enjoy competitive pay and benefit from having no set work hours or schedules. You will have the flexibility to schedule your hours to fit your lifestyle and to work around your career and family demands. You have the freedom to choose when and how much you would like to work.
+Here"s why this project may be a great fit for you:
+	• No commute and flexible hours - work from home when you want! This project typically offers work 7 days a week
+	• Interesting &amp; informative work - you will be exposed to different news articles and information - while getting paid!
+	• Sense of achievement - you will be making the end-user experience on financial news better!
+	• Attentive management team - our Project Managers are always here to assist you in any way we can!
+No experience is necessary, all you need is:
+	• Be a fluent speaker of Russian skills residing in Kyrgyzstan
+	• Have at least an intermediate proficiency in English to understand the project instructions 
+	• A personal computer with a secure and stable internet connection
+	• Willingness to comprehend and follow instructions independently
+As a member of this project, you"ll have the opportunity to make a real impact on the end-user experience of financial news. Your work will contribute to improving the quality and accessibility of financial information.
+So, how to start? Create your own Appen Account using the link below.
+https://connect.appen.com/qrp/public/project?type=search_evaluation&amp;utm_campaign=RemoteHubAajon_BaffinKG__
+	• Choose Russian (Kyrgyzstan) as your primary language
+	• Complete your profile and project registration [5 min]
+	• Study the provided guidelines [at your own pace] 
+	• Agree to confidentiality and ways of working rules 
+	• Pass the quiz 
+Thank you and we hope to work with you soon! 
+"Appen has a diverse, inclusive culture that is vital to our mission of helping build better AI. We offer opportunities for individuals of all abilities and backgrounds."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are seeking for an experienced product manager coming from the iGaming industry who will act as a fully committed and hands-on professional, having a direct impact on internal and external departments. 
+Responsibilities:
+•	Manage tactical or strategic roadmap projects as assigned. 
+•	Develop and execute a product strategy for casino and sportsbook products that aligns with the company"s goals and objectives.
+•	Define the product roadmap and user stories in collaboration with business stakeholders.
+•	Conduct market research and analysis to identify customer needs and competitive landscape.
+•	Oversee the promotions, games, website graphics, and bring new ideas to their online gaming platform.
+•	Generate leads, approach new markets, make deals with providers, and generate marketing.
+•	Work closely with development teams to ensure that product requirements are clearly defined and executed.
+•	Collaborate with internal resources.
+•	Ensure product releases are on time and meet internal and external clients’ needs.
+•	Communicate with management, senior executives and stakeholders on product direction, strategy and upcoming projects.
+•	Advise internal teams on decisions and questions related.
+•	Create and maintain product and process documentation on an ongoing basis.
+Requirements:
+•	At least 3-4 years of previous successful and hands-on experience as online product manager, overseeing a dedicated team and managing product prioritization, roadmap, and delivery of user-facing functionality.
+•	Must have working experience within the iGaming Industry/ Online Casino/ Sports betting Industry within European markets and strong understanding of the online gaming market, including games, promotions, marketing, and customer experience.
+•	Experience with Agile development methodologies and product management tools (e.g., JIRA).
+•	Bachelor"s degree in business, marketing, engineering, or related field.
+•	Technical and Business acumen is a must
+•	Excellent written and verbal communication skills
+•	Strong problem solving skills
+•	Strong analytical and problem-solving skills.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southmedia — агентство перфоманс-маркетинга с экспертизой в сфере недвижимости и авто. Мы 14 лет в деле. Работаем с автохолдингами и крупными девелоперами. В 2022 году открыли филиал в Дубае, где успешно работаем с агентствами недвижимости.‍
+Настраиваем контекстную, таргетированную и медийную рекламу для десятков проектов. Разрабатываем онлайн-сервисы, сайты, онлайн- и офлайн-рекламу, брендинг. Создаём сложные интеграции с CRM, телефонией, рекламными кабинетами и прочими сервисами.‍‍
+У нас большая сильная команда и мы её расширяем, поэтому ищем опытного менеджера проектов. Здорово, если сработаемся именно с тобой!
+‍
+Что тебе предстоит делать:
+управлять проектами технической поддержки веб-сайтов и сервисов автоматизации на всех стадиях: от идеи до сдачи;
+управлять командой специалистов: составлять техзадание, контролировать ежедневную нагрузку, расход времени, промежуточные и итоговые результаты;
+вести переговоры с клиентами (в том числе и иностранными) по текущим проектам, оперативно решать возникающие вопросы;
+управлять ожиданиями клиентов;
+принимать решение по оптимизации работы техподдержки;
+вести отчетность по проектам для непосредственного руководителя.
+Ты справишься, если:
+успешно выполняешь аналогичные задачи не меньше 2-х лет;
+владеешь английским языком не ниже уровня intermediate;
+плодотворно ведёшь устные и письменные переговоры;
+тебе хорошо знакомы понятия 1C-Bitrix, HTML, PHP, JavaScript, CSS;
+будет здорово если ты успешно закончил курсы по проектному управлению.
+И ещё мы ждём, что ты:
+мыслишь здраво и системно;
+не паникуешь в случае факапа, а предлагаешь решения;
+умеешь аргументированно защищать работу своей команды;
+задаешь правильные вопросы и находишь нужную информацию;
+стремишься самостоятельно понять суть задачи, а не просто бездумно передать требования заказчика;
+следишь за digital-трендами, любишь учиться.
+Что взамен:
+достойная зарплата, возможность карьерного и финансового роста;
+работа с крупными клиентами, которые обогатят твоё портфолио;
+классная команда: убедишься, когда с нами познакомишься;
+руководители, которые всегда готовы к диалогу и поддерживают инициативы;
+обучающие курсы, книжки, спорт — мы оплатим полностью или частично;
+частичная компенсация расходов на психолога;
+дополнительные выходные дни помимо основного отпуска;
+рабочий день с 9 до 18 или с 10 до 19 — как ты захочешь;
+оформление по ТК РФ (отпуск и больничный полностью оплачиваются).
+Если выбираешь офисную работу, то ещё:
+рабочее место в стильном офисе с MAC и видом на озеро;
+свежие фрукты, чай, какао, молоко, немолоко, кофемашина;
+бесплатная корпоративная йога 2 раза в неделю;
+настольный футбол.
+Офис в Краснодаре, но мы готовы сотрудничать дистанционно.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you like reading financial news and learning about the ebbs and flows of various financial markets?  We do too! Come and join us at Appen!
+Why Appen?
+You enjoy competitive pay and benefit from having no set work hours or schedules. You will have the flexibility to schedule your hours to fit your lifestyle and to work around your career and family demands. You have the freedom to choose when and how much you would like to work.
+Here"s why this project may be a great fit for you:
+	• No commute and flexible hours - work from home when you want! This project typically offers work 7 days a week
+	• Interesting &amp; informative work - you will be exposed to different news articles and information - while getting paid!
+	• Sense of achievement - you will be making the end-user experience on financial news better!
+	• Attentive management team - our Project Managers are always here to assist you in any way we can!
+No experience is necessary, all you need is:
+	• Be a fluent speaker of Russian skills residing in Kyrgyzstan
+	• Have at least an intermediate proficiency in English to understand the project instructions 
+	• A personal computer with a secure and stable internet connection
+	• Willingness to comprehend and follow instructions independently
+As a member of this project, you"ll have the opportunity to make a real impact on the end-user experience of financial news. Your work will contribute to improving the quality and accessibility of financial information.
+So, how to start? Create your own Appen Account using the link below.
+https://connect.appen.com/qrp/public/project?type=search_evaluation&amp;utm_campaign=RemoteHubAajon_BaffinKG__
+	• Choose Russian (Kyrgyzstan) as your primary language
+	• Complete your profile and project registration [5 min]
+	• Study the provided guidelines [at your own pace] 
+	• Agree to confidentiality and ways of working rules 
+	• Pass the quiz 
+Thank you and we hope to work with you soon! 
+"Appen has a diverse, inclusive culture that is vital to our mission of helping build better AI. We offer opportunities for individuals of all abilities and backgrounds."
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are looking for a communicative, experienced, and skillful Technical Project Manager to empower our game development team.
+ATTENTION: Pingle Studio DOES NOT HIRE from Russian Federation.
+Над чем работать?
+-Платформы: PC, Mobile, Console
+На какие задачи (обязанности)?
+-Schedule &amp; provide regular status reports of the projects;
+-Planning, executing and monitoring the project roadmap;
+-Provide feedback on priorities, objectives, and expectations;
+-Track performance of the team members;
+-Manage resources, time and scope of projects to ensure project delivery is in line with the requirements of the company and the client.
+Какого профессионала ищем?
+-4+ years of experience in outsource or mixed company (outsource is a must) as a Project Manager;
+-At least Upper-intermediate English both spoken and written;
+-Excellent skills in all key project management steps: project launch, working in sync with development and client teams, working on charge requisitions, coordinating additional work, syncing with the business development team, creating current and final deliverables, and project finish;
+-Experience working with technical teams of development, understanding of the interaction between them;
+-Understanding of the specifics of full-cycle project management, understanding how the game should look at each stage of its creation within the full-cycle project;
+-Deep knowledge of various project management techniques and approaches (Agile, Waterfall etc.);
+-Good understanding of development processes and pipelines;
+-Experience in JIRA administration (workflow setup, ticket filling settings, automation and restrictions);
+-Experience with scheduling and project tracking software (Jira, Confluence, Google services (docs, sheets etc).
+Great to have:
+-Experience in GameDev outsource company;
+-Art Pipelines understanding;
+-Experience in Game Porting for different platforms (Xbox, PS, Nintendo Switch, mobile, to see the exact projects will be perfect);
+-Understand the criteria for assessing the quality of builds (FPS, memory, etc.) at each stage of game porting;
+-Have CCPM (Critical Chain Project Management) certification.
+Что для нас важно в человеке?
+-Excellent communication skills and assertiveness;
+-Ability to convey thoughts and messages in a clear and neat way.
+Какие условия и бонусы?
+-Fast hiring and clear process;
+-20 Paid Vacation Days;
+-10 Paid Sick Leave Days;
+-Regular salary reviews;
+-Personal Development Plan for clear growing of skills;
+-Accountant support and full taxes coverage;
+-Comfortable Office Location and the ability to work remotely;
+-Corporate English lessons;
+-Advanced training: compensation of 50% of the cost of training courses, video courses;
+-Career Path and Mentorship Program;
+-Referral internal Program: Active Program with Great Bonuses;
+-Сommunity of people who understand your game passion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MitGo — глобальная технологическая компания, ориентированная на предоставление инновационных решений и развитие предпринимательства. Наша цель — создавать, инвестировать и развивать онлайн-бизнес. Mitgo предлагает решения и услуги в секторах MarTech, FinTech, Smart Shopping и IT-инкубации стартапов. В компании со штаб-квартирой в Неккарзульме, Германия, работает более 800 специалистов в более чем 10 офисах в США (Чикаго), Европе (Амстердам, Варшава, Минск и Тбилиси), Бразилии (Сан-Паулу), ОАЭ (Дубай) и Индия (Гуруграм). Мы ищем Senior Product Manager в команду getUNIQ, которому предстоит:   Возглавить продуктовую работу в её R&amp;D части:   формулировать и проверять имеющиеся гипотезы;   запускать и масштабировать новые продукты и инструменты и развивать имеющиеся;     Поддерживать принятую в команде и компании систему планирования, приоритизации и отчётности, а также активно участвовать в её улучшении;   Разрабатывать и актуализировать средне- и долгосрочный roadmap;   Участвовать в выработке долгосрочной продуктовой стратегии и видения по продукту вместе со стейкхолдерами;   Участвовать в масштабировании продукта на новые географии;   Формировать иерархию метрик и отслеживать их состояние.   О проекте getUNIQ – это SaaS платформа, агрегатор рекламных сетей с элементами финансового процессинга для автоматизации и управлении трафиком, рекламным аккаунтами и бюджетом клиента. О команде Суммарно вы будете непосредственно работать с командой из 32 человек. Также доступны централизованные ресурсы: продуктовая аналитика, продуктовый дизайн, user research центр Что хотим:   Опыт работы в продуктовой команде в роли Head of product / Senior Product Manager;   Опыт работы с AdTech / MarTech продуктами, понимание рынка рекламы или опыт в FinTech;   Умение структурировать информацию, сохранять сложный контекст и отделять главное от второстепенного;   Отличное понимание продуктовых метрик;   Умение декомпозировать и делать работу поэтапно;   Умение проводить конкурентный анализ и User Research;   Умение исследовать рынок и быстро погружаться в новые предметные области;   Продуктовый подход. Понимание того как проводятся эксперименты, фокус на быструю проверку гипотезы при минимальных или отсутствующих затратах на разработку.   Будет плюсом:   Возможность регулярно бывать в московском офисе компании;   Опыт вывода продуктов на новые рынки.   Что предлагаем:   Все по ТК и даже больше - дополнительные отгулы и доплата за дни больничного листа;   Гибридный формат работы (офис/удаленка);   Ноутбуки для комфортной работы из дома;   Современный офис с игровой зоной, фруктами и напитками;   ДМС со стоматологией после прохождения испытательного срока;   Корпоративный абонемент в фитнес клуб;   Обучающие курсы, тренинги и конференции;   Скидка на изучение английского языка в SkyEng;   Эффективная программа адаптации для новых сотрудников;   Корпоративы и тимбилдинги.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIGITECH является аккредитованной ИТ компанией. За годы работы мы успешно реализовали все проекты по разработке ПО и стали надежным ИТ-партнером для разных бизнес-направлений: крупные оптово-розничные сети, логистические операторы и e-commerce. Мы ценим гибкость мышления, честность, открытость и командную работу. Сегодня в наших офисах в Москве, Санкт Петербурге, Новосибирске, Екатеринбурге работают более 250 штатных сотрудников (из них более 246 технических специалистов). DIGITECH разрабатывает и внедряет: Кассовое и розничное ПО для розничных сетей Сайты, маркетплейсы, мобильные приложения WMS и TMS системы для логистических комплексов, распределительных центров и дарксторов ERP системы и системы внутреннего учета бизнеса Проекты повышения эффективности управления информационной безопасностью. Мы работаем по SCRUM , в Jira и Confluence. В команду мы приглашаем Руководителя проектов. МЫ ГОТОВЫ ПРЕДЛОЖИТЬ СРАЗУ: Возможность влиять на продукт, предлагать свои идеи по развитию, реализовывать их и сразу видеть результат Адекватная, сильная команда Режим работы: удаленный формат (по желанию есть офис в центре) Персональное предложение по заработной плате, соответствующее опыту и вашим ожиданиям Расширенный социальный пакет (ДМС, после 3-х месяцев работы) У нас проходит одна встреча и сразу с командой (общаемся по zoom: знакомимся с Вами как с человеком и специалистом, время встречи 1 (один) час) Мы всегда делаем официальный offer (это гарантия, что мы Вас ждем!) СУТЬ РАБОТЫ: Анализ заявки на проект, анализ ФЭО, формирование проектной команды, определение и согласование границы проекта SCP и всех заинтересованных лиц, Формирование и утверждение требований BRD, планирование реализации проекта ROAD MAP Заведение задач по проекту в Jira, установка приоритетов, документирование доработок на Confluence Еженедельная актуализация статуса проекта в карточке проекта Исполнение и контроль реализации проекта (срок и вкл. контроль освоения бюджета проекта), организация приемки MVP проекта Участие в ОПЭ и организация передачи проекта на ТП в ПЭ (в направление разработки на развитие решения), оценка качества реализации проекта, анализ удовлетворенности заказчиков, расчет вознаграждения по проекту Управление: ресурсами, бюджетами, сроками, изменениями, рисками, закупками (поставка оборудования, лицензий, ПО, контроль подрядных организаций внедрения и поддержки) ЗНАНИЯ И НАВЫКИ, НЕОБХОДИМЫЕ ДЛЯ РАБОТЫ Опыт управления ИТ-проектами от 3-х лет Знание бизнес-процессов Розницы Знание различных конфигураций платформы 1С Активная жизненная позиция, общительность, ответственность. Знание основ PMBoK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ищу Project Manager в аккредитованную IT-компанию, которая уже более 6 лет на рынке и занимается разработкой продуктов для автоматизации процессов в сфере крупной промышленности и производства. IT команда - 70 человек, работают по Agile (Scrum), приветствуется рост и развитие, есть возможность посещать конференции, обучения и воркшопы. Основная задача сейчас - сформировать внешний пул подрядчиков для оперативного подключения к задачам и выстроить совместную работу внутренних и внешних команд. Что еще нужно делать: - управлять рисками, качеством, и сроками работ - выстраивать эффективную коммуникацию с командами разработки, вовлекать участников из разных продуктовых команд - Оперативно реагировать на изменения, возникающие в проектах Что хотим видеть в опыте: - успешный опыт управления IT-проектами от 3х лет - многозадачность и дзен в тайм-менеджменте (до 5 проектов в параллели) - Понимание PMBoK или других проектных методологий - умение работать по Agile, а еще приветствуется Agile SAFe Будет плюсом если - уже есть опыт интеграции внешних команд - наличие сертификации PMP, PRINCE2, IPMA Условия: - Удаленный или гибридный формат работы - Оформление по ТК РФ, при желании можно по ГПХ - Оплачиваемые командировки - Корпоративная развозка от ст. м. Московская / парковка на территории БЦ Technopolis - ДМС (включая стоматологию) - Корпоративная мобильная связь, оплачиваемые обеды - Корпоративное обучение Интересно? Откликайтесь, давайте общаться!) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Обязанности:
+-преподавание курса «Управление проектами в сфере разработки ПО» в группах в соответствии с разработанным учебным планом и программой обучения;
+-коррекция и актуализация учебной программы;
+-проверка домашних заданий;
+-контроль знаний слушателей;
+-предоставление слушателям обратной связи.
 Требования:
-- Знание базовых правил деловой переписки;
-- Умение работы с больший протоком информации;
-- Стрессоустойчивость;
-- Опыт работы на аналогичной должности будет плюсом.
-Обязанности:
-- Подбор персонала;
-- Консультация по трудоустройству;
-- Поиск и привлечение новых сотрудников;
-- Планирование и отчетность;
-- Выполнение KPI.
+-практический опыт управления проектами по разработке ПО не менее 4-х лет (в приоритете в аутсорсинговой или продуктовой компании);
+-знание методологий управления проектами, стандартов качества, методик организации работ в проектных командах, хорошие аналитические навыки, принципов SCRUM и Agile;
+-активность, ответственность, нацеленность на результат, высокая личная организованность, умение наладить командную работу, хорошие коммуникативные навыки;
+-грамотная речь;
+-желание преподавать, делиться знаниями и опытом.
 Условия:
-- ЗП 25000-30000₽ (оклад + KPI);
-- График работы 5/2, 9:00-18:00;
-- Возможность работать с телефона/планшета/ПК/ноутбука;
-- Работа из любой точки мира;
-- Работа в молодой и дружной команде.
+-частичная занятость по вечерам (работа по совместительству с основным местом работы);
+-занятия проходят очно в городе Минск;
+-гибкий график работы, дни занятий согласовываются с кандидатом;
+-возможность работать как со сборными, так и с  корпоративными группами;
+-работа в вечернее время.
+занятия проходят очно в городе Минск; 
+ #</t>
+  </si>
+  <si>
+    <t>Job Title: Licensed Practical Nurse (LPN)
+Location: Huntersville, NC
+Duration: Permanent
+Shift: Shift: 7:00 PM - 7:00 AM;
+Sign-on Bonus: $10,000(paid out in 2 increments; 90 days and 1 year)
+Job Type: Onsite
+Job Duties:
+Performs nursing care and assists with planning and implementing care for the comfort and well being of the patient under the direct supervision of a registered nurse.
+Assists in maintaining a safe working environment, performs all related job responsibilities in a safe manner and maintains clinical and professional competency as appropriate to the ages, developmental stages, and special needs of the patients served.
+Essential Functions Participates in patient assessments by determining nursing care needs based upon collection and interpretation of relevant data.
+Recognizes and determines need for immediate intervention.
+Demonstrates knowledge which enables the following: documentation of patient observations, treatments, patient response to treatment and nursing care utilizing the nursing process, participates actively in treatment and assisting with procedures.
+Assists with development/revision of the plan of care by providing data and identifying potential goals and intervention for review by the RN - . Communicates with the appropriate clinical staff on the status of a patient if a significant change has occurred.
+Implements the identified plan under the supervision of the RN - , ensuring tasks have been completed.
+Aware of patient"s progress and goals as demonstrated by documentation in the medical records.
+Organizes workload and prioritizes responsibilities to ensure quality patient care is delivered in a time efficient manner.
+Attains knowledge and competence that reflects current nursing practice and performs only those nursing skills which they are competent to perform in accordance with legal boundaries and facility policies and procedures.
+Documents assessments, procedures, patient/family education, and the communication of information to appropriate members of the healthcare team in a timely manner.
+Provides and assesses effectiveness of patient and family education under the direction of the registered nurse within the scope of practice as defined by law.
+Physical Requirements Work requires walking, standing, sitting, lifting, reaching, bending, pushing, and pulling.
+Must be able to lift and support the weight of 35 pounds when handling patients, medical equipment and supplies.
+Understands and speaks fluent English. Must have intact sense of sight, hearing, smell, and touch, finger dexterity, critical thinking and ability to concentrate.
+Must be able to respond quickly to changes in the patient and unit conditions.
+Based on the physical requirements for this position all applicants for this position are required to undergo a physical ability test as a condition of employment
+Requirements:
+Current LPN licensure or temporary license as a licensed practical nurse petitioner required.
+Basic Life Support for Healthcare Provider (BLS HCP) from AHA required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this technology role you are responsible to support in eCommerce area. You need to create project plans, organize resources and help to define scopes for our ongoing and future plans with the team. You are also supporting the product owner and Business Analyst to lead eCommerce area and deliver defined projects in time.
+You bring knowledge and experience from project management to support development projects. You are familiar with the technical implementation of applications such as Magento.
+In addition to the eCommerce IT team, you work with Product Owners, Business Analysts, developers and of course inspiring stakeholders.
+Skills:
+Qualification in project management or equivalent
+Knowledge of both theoretical and practical aspects of project management
+Knowledge of project management techniques and tools
+Direct work experience in project management capacity
+Proven experience in people management
+Proven experience in strategic planning
+Proven experience in software development projects
+Proven knowledge and experience in project management (e.g. IPMA, PMP certificate)Proficient in project management software
+General Skills (non-technical)
+Must be detail oriented, a self-starter and a strong team player
+Excellent verbal and written communication and time management
+Strong analytical and technical skills
+Flexible and adaptable in the face of changing priorities or circumstances
+Ability to make decisions and be accountable for decisions and actions
+Strong attention to detail
+Effective planning and organizations skills
+Copes well under pressure and with uncertainty
+Drives for result and has problem solving ability
+Experience Required:
+A Experience in Scrum and Waterfall Project Management
+Experience in Software Development Projects (5 years +)
+Experience in Project Management (3 years +)
+Please, submit your resumes to the email: ana@aidaprojektai.lt
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Компания JOBCART.RU ищет оператора call центра для полного дня удаленной работы. Мы предоставляем кадровые услуги для бизнеса и в связи с расширением ищем энергичного и ответственного человека к себе в команду.
-Требования:
-- Готовность к обучению, грамотная устная/письменная речь;
-- Владение компьютером на уровне уверенного пользователя;
-- Желание работать и зарабатывать;
-- Наличие доступа в интернет, компьютера, гарнитуры.
-Обязанности:
-- Работа на исходящих звонках по клиентской базе b2b.
-Условия:
-- Удаленная работа;
-- Полный рабочий день;
-- Возможна подработка: сменами по 4-6 часов;
-- Заработная плата от 35000 рублей;
-- Прозрачная система мотивации: возможность влиять на уровень ежемесячной премии.
+    <t xml:space="preserve">We are looking for a Test Manager to support with implementation of Workday project. For this role, we are looking for a professional that is capable to lead, manage, plan and report to ensure on time delivery. The main responsibility would be to step in and manage tasks so that the team can deliver tests.
+We are searching for an experienced manager (at least 1-3 years’ experience) to manage the team in carrying out the delivery of tests. This role is test manager role, with focus on project test managing and leading the process. Please note, that the testing process, tools and the environment are already implemented, so there is no need to create new testing procedures or setup tools. The main responsibility in this role is to ensure that the team deliver tests on time to ensure project to be closed successfully.
+Responsibilities:
+Covering management of test planning, preparation and execution 
+Status reporting to Project Manager 
+Workday knowledge/experience (seen as a plus)
+Skills required:
+Thorough understanding of SaaS based solution test management
+1-3 years’ experience in project/test management
+Experience managing a team in an international environment
+Previous knowledge/experience with solution testing
+Ability to work independently
+Proven track of successful project delivery
+Fluent English language in writing and speaking
+Please, submit your resumes to the email: ana@aidaprojektai.lt
 </t>
   </si>
   <si>
-    <t xml:space="preserve">В прошлом году Продюсерский центр LA сделал несколько сот миллионов на своих проектах. Компания является резидентом Сколково и Астана Хаб. Прямо сейчас они ищут сильного HR-менджера / рекрутера в онлайн-школу в команду.
-Требования:
-- Закрытие линейных и нелинейных вакансий. Начиная от менеджера по продажам, заканчивая экспертом по нутрициологии. Для нас важен опыт работы с онлайн-школами от 1 года.
-Обязанности:
-- Работать по дедлайнам. Мы ставим задачу на поиск, даем абсолютно любые ресурсы и обсуждаем четкий дедлайн по каждой вакансии. Для нас важно закрытие каждой вакансии вовремя;
-- Работать с различными инструментами поиска. Нужно уметь выбирать наиболее подходящий источник поиска для каждой вакансии. При необходимости комбинировать или использовать всё вместе. Если вы не сможете выполнять, то что для нас важно, то мы не сработаемся. Для нас важно, чтобы вы не зацикливались только на ХХ, или только на чатиках в телеге.
-Условия:
-- Сильную и драйвовую команду, в которой вы вырастите кратно;
-- Возможность размещаться и искать более, чем в 7 ГЕО;
-- Свободу действий. Вы предлагаете решение и сразу же берете его в работу;
-- Комфортную финансовую мотивацию фикс + KPI;
-- ЗП: 80.000-120.000 руб в мес или эквивалент в любой другой валюте.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В связи с расширением штата в компании ЮМИН открыта вакансия Менеджера по поиску персонала и кадрам. Компания ЮМИН – федеральный поставщик автономного и резервного энергоснабжения объектов любого типа.
-Требования:
-- Опыт работы в сфере поиска персонала и ведения кадрового учета от 1 года.
-Обязанности:
-- Поиск персонала, своевременное размещение вакансий на всех возможным сайтах-агрегаторах, контроль их размещения;
-- Предоставлять еженедельно/ежемесячно отчет по проделанной работе в части поиска персонала;
-- Ведение кадрового учета. Контакт с персоналом напрямую при возникновении вопросов в части оформления и ведения кадрового учета;
-- Взаимодействие с бухгалтерией. Формирование необходимых отчетов по кадрам и документов для бухгалтера. Штат до 20 чел.
-Условия:
-- Возможности полностью удаленной работы и неполного рабочего дня;
-- Корпоративная сотовая связь;
-- Карьерный рост до Руководителя направления;
-- Заработная плата - оклад + KPI;
-- Молодой, дружный коллектив;
-- Официальное трудоустройство. Отпуск. Больничный;
-- Мы ищем энергичных, амбициозных и целеустремленных сотрудников. Лучшим гарантируем карьерный рост и возможности самореализации.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Если Вам надоели серые будни в офисе и Вы хотите работать удаленно, если Вы исполнительны, пунктуальны и являетесь уверенным пользователем ПК, то эта вакансия для вас.
-Требования:
-- Знание правил деловой переписки;
-- Стрессоустойчивость;
-- Умение работать с большим объёмом информации.
-Обязанности:
-- Планирование и предоставление отчётности;
-- Консультация по трудоустройству;
-- Поиск и привлечение новых сотрудников;
-- Выполнение KPI.
-Условия:
-- Развитие в сфере HR;
-- Хорошую зарплату 25000-30000 руб;
-- График работы с 9:00 до 18:00 по МСК;
-- Работа из любой точки мира;
-- Молодой дружный коллектив.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В международную компанию, занимающуюся проектированием и производством уникального роботизированного оборудования для альтернативной энергетики и телевидения, требуется менеджер по подбору персонала с возможностью удаленной работы.
-Требования:
-- Высокий уровень эмоционального интеллекта;
-- Владение различными технологиями подбора персонала;
-- Готовность работать в режиме многозадачности и ориентированность на результат;
-- Свободный разговорный английский.
-Обязанности:
-- Организовывать поиск и привлечение талантливых специалистов в компанию, включая инженерный и руководящий составы как в России, так и за рубежом;
-- Осуществлять анализ и разработку эффективных методов подбора персонала всех уровней, мониторинг рынка труда и з/п;
-Условия:
-- График работы согласовывается с каждым кандидатом отдельно;
-- Официальное трудоустройство в России или за рубежом.
-</t>
-  </si>
-  <si>
-    <t>We are recruiting for the position Frontend/UI ServiceNow Developer.
-Main Responsibilities:
-Supporting ServiceNow processes regarding to HR services
-Developing the new functionalities and supporting incidents to meet PO’s requirements
-Working on projects based on Agile methodology
-Taking part in processes improvements regarding to ServiceNow
-Working on HR portal on frontend site to deliver best user experience for Client’s employees
-Cooperating with UX Designers, Architect and Developers
-An ideal candidate profile:
-At least 5 years of experience within IT application system
-Including at least 3 years of experience in developing website/webpage and ServiceNow platform
-Experience with platform customization in relevant delivery platforms
-Experience with custom application development including Custom Service Portal widget creation
-Ability to creating, enhancing and fixing complex UI Page, custom and interactive widgets
-It will be huge asset to have hands-on experience with Agile/SAFe setup
-Very good knowledge of written and verbal English is a must
-We offer:
-B2B agreement
-Transparent working conditions with both Ework and the client
-Current support during our cooperation
-Possibility to work in an international environment
-Collaborative environment in Swedish organizational culture 
-Private medical care
-Life insurance
-Multisport
-Teambuilding events</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.       Should have at least 12-15 years of experience in Peoplesoft HR/EBS HRMS/ Cloud HCM and OIC
-2.       should have Integrated Oracle Cloud HCM - Core HR, Absence Management, Benefits and Payroll with various other systems for both Inbound and Outbound
-3.       Should have worked with OIC as the Integration Platform.
-4.       Should have delivered at least 5 end-2-end Integration assignments in Oracle Cloud HCM
-5.       Should be well versed with onsite-offshore methodology
-6.       Should have good knowledge on mapping Data Entities between Peoplesoft and Cloud HCM - Core HR, Absence Management, Benefits and Payroll.
-7.       Should have very good communication skill
-8.       Should be a go-getter and should appreciate and meet the timeline
-9.       Should be able to manage all stakeholders – Customer’s IT and Business Leadership Team, Project’s Onsite and Offshore Team, Project Management Team and TCS Leadership Team
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torre Labs is looking for HR tech sales.
-💰 Compensation: USD 3,000 - 20,000/monthly.
-+ This is a 100% commission opportunity.
-+ Uncapped commissions!
-🌎 Location: Remote - United States.
-💪 Skills: Proficient in recruitment and technology sales.
-⭐ Responsibilities and more:
-The future of recruiting is now! 🚀
-Torre is already changing the face of recruiting by vertically integrating the recruiting stack, using AI to automatically source, screen, and match candidates with jobs.
-Tomorrow’s HR teams will have a single tool that allows them to do what they do best – focus on their people! Finding the right people is a thing of the past with Torre.
-We’ve been building since 2018, as it is complex technology, and now we are growing quickly.
-We believe this technology will replace the need for recruiters in the future, in the same way Uber has replaced (mostly) the need for taxis. But, it doesn’t mean we don’t love recruiters! We just think there is a better way.
-❗ Join us for our second cohort starting May 1st! This will be a 4-week training program, where you will learn about Torre’s innovating technology.
-⚠️ Important:
-This is a 100% commission opportunity.
-This could eventually lead to a full-time role at Torre.
-✅ We will also be offering:
-Sales training.
-Full operational support.
-Access to various tools to help with your efforts.
-Workshops from industry leaders.
-Live group discussions.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Job title:               HR &amp; Office co-ordinator
-Company:            Krisp interiors &amp; Architecture
-Qualification:     BBA in HR/MBA in HR
- Experience:        1 year (preferred)
-Employment:      Full Time
-Salary:                  15000/- to 25000/-
-Location:               Kakinada
-Job description:
-•	Supporting the development and implementation of HR initiatives and systems
-•	Being actively involved in recruitment by preparing job descriptions, posting ads and managing the hiring process.
-•	Orientating new employees.
-•	Monitoring employee performance.
-•	Payroll management
-•	Organising and maintaining personnel records.
-•	Preparing HR documents.
-•	Feasible to take up additional responsibility.
-•	Ability to develop and maintain effective working Relationships at all levels.
-Requirements:
-•	Bachelor’s degree in HR or Masters in HR
-•	Sound knowledge of HR functions
-•	Proficient in MS Office
-•	Outstanding organizational and time-management abilities
-•	Excellent communication and interpersonal skills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Обсуждение вакансии в чате @devops_jobs
-#Вакансия #DevOps #middle #senior #удаленка
-Всем привет! Меня зовут Алина, HR компании Altenar. Ищу DevOps инженера уровня middle и senior на постоянную работу в IT команду!
-Позиция: DevOps инженер
-Компания: Altenar
-Формат работы: гибрид или удалённая
-Город: Москва/Питер/Владимир/Грузия/Армения
-Занятость: полная
-Уровень: #middle или #senior
-Зарплатная вилка: от 200к до 400к на руки
-Команда DevOps играет ключевую роль в нашей компании, участвует в процессе разработки продуктов и вовлечена в различные аспекты жизненного цикла разработки с фокусом на автоматизацию процессов. 
-▫️Наши публикации на Хабр (https://habr.com/ru/search/?q=%5BAltenar%5D&amp;target_type=posts)
-Что предстоит делать?
-- Развивать и поддерживать гибридную инфраструктуру (VMWare + Google Cloud)
- - Искать и устранять неполадки на production среде
-- Развивать и совершенствовать стек DevOps инструментов (Helm, Flux, Azure DevOps, Terraform, Kubespray, Ansible etc.)
- - Автоматизировать тестирование и развертывать на Dev Stage Prod средах.
-- Разрабатывать и внедрять Kubernetes Security Best Practices такие как PSP,Network Policy, Image Vulnerability Scanners etc.
-Что мы ожидаем от кандидата?
-- Практический опыт работы с Kubernetes - умение развернуть production ready кластер
-- Опыт построения CI/CD pipelines с jenkins/Azure DevOps/teamcity или другими системами ci/cd
- - Опыт работы с системами сообщений (NATS, RabbitMQ, Kafka)
- - Опыт работы с системами мониторинга такими как Zabbix, Prometheus
-Что мы предлагаем:
-- Работу в аккредитованной IT компании
-- Удаленную работу или работу в офисе по вашему выбору (Москва, Санкт-Петербург, Владимир, Смоленск, Тбилиси, Ташкент)
-- Оформление по ТК РФ и белую заработную плату
-- Performance review 2 раза в год
-- Годовые премии
-- ДМС, стоматологию и страхование жизни
-- Обучение английскому
-- Конференции
-- Компенсацию фитнеса
-Контакты: https://t.me/alina_ershova133</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
+    <t xml:space="preserve">О компании: Мы быстрорастущая компания, которая занимается продажей товаров на маркетплейсе Wildberries Мы на постоянной основе ищем интересные новинки и осваиваем новые ниши. В этом году мы планируем кратно расти от месяца к месяцу. Мы работаем на результат и не приветствуем микроменеджмент, поэтому выстраиваем команду, с которой выстроим партнерские и доверительные отношения, на долгосрочный период времени. В связи с этим ищем в команду руководителя направления , который достигнет цели приведет нас к 30млн. Что будет входить в обязанности? Создать план роста выручки в этом году Запускать новые товары Создавать план ведения новых товаров Создание плана продвижения карточки с использованием всех возможных, эффективных инструментов на рынке Реализация плана продвижения. Работа с отзывами, выкупами, SEO (поиск и подбор самых продающих запросов и не только), отслеживание CTR, работа с внутренними РК, работа с внешними рекламными инструментами Регулярный анализ результатов эффективности продвижения товара на маркетплейсах Анализ продаж Контроль ценообразования, вхождение в акции, работа по оптимизации затрат связанных логистикой и стоимостью хранения на МП Плотное взаимодействие со смежными подразделениями для контроля работ связанных с закрепленными карточками Кто нам нужен: Продвинутый пользователь Excel Ты прекрасно понимаешь особенности каждого маркетплейса и знаешь инструменты, которые позволяют масштабировать продажи Опыт работы с большими бюджетами Склонность к постоянному обучению, развитию профессиональных навыков и самосовершенствованию Способность работать в команде, самостоятельность, нацеленность на результат и ответственность за него Портфолио работ и успешных кейсов Ты всегда ищешь, разрабатываешь, тестируешь и предлагаешь новые гипотезы по увеличению продаж на маркетплейсах Что вы получите от работы в нашей компании? Обучение, повышение квалификации, тренинги от нашей компании Адекватное и позитивное руководство Настоящая команда единомышленников График работы 5/2 с 09:00 - 18:00 Высокий уровень дохода: от 120 000 руб. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Описание проекта Меняем бизнес-процессы фиксации и обработки обращений (клиентский сервис b2c). Внедряем новую функциональность Siebel CRM и смежных ИТ-систем. Внедряем новую отчетность в SAP BW для гибкого управления и точного отслеживания KPI. Основные задачи сотрудника на данной позиции Реализация проектов маркетинга (CRM, Клиентский сервис) Отчеты о ходе реализации проекта Административное сопровождение Требования Опыт внедрения или поддержки CRM Опыт работы b2c Опыт в ритейле Отличные организаторские и лидерские качества Системность, структурность, ответственность Отличные коммуникативные и презентационные навыки Будет плюсом, если у Вас есть Специализация маркетинг будет плюсом Условия Официальное оформление в аккредитованную IT-компанию Система ДМС Есть собственный учебный центр с тренингами по языкам программирования, soft skills, карьерному росту и пр. Участие в крупных отраслевых мероприятиях Cпортивные и well-being мероприятия Корпоративные скидки от компаний-заказчиков и многое другое </t>
+  </si>
+  <si>
+    <t xml:space="preserve">В перспективный foodtech стартап со стабильным финансированием приглашается на удаленную fulltime работу Руководитель команды разработки (Менеджер проекта). Мы ищем специалиста, обладающего знаниями и опытом руководства веб и мобильной разработкой высоконагруженных клиент-серверных приложений. Задачи: - Эффективное управление командой из бизнес-аналитика, разработчиков back, front, mobile, QA инженеров, DevOps, дизайнерв - Взаимодействие с внутренним и внешними заказчиками - Деловая переписка - Управление таймингом, бэклогом и roadmap проекта - Ведение документации по проекту - Формирование и ведение бюджета проекта Личностные требования: - Развитое умение аналитически мыслить, системность - Высокие организаторские и тимлидерские способности - Умение работать с большими обьемами информации - Умение руководить командой разработчиков - Умение работать на результат, аргументированно отстаивать свою позицию - Портфолио успешно реализованных проектов Профессиональные требования: - Опыт ведения IT-проектов (разработка сайтов, мобильных приложений) не менее пяти лет - Знание стека и принципов разработки веб и мобильных приложений - Умение работать с требованиями, ставить задачи разработчикам, декомпозировать задачи на подзадачи и оценить их по времени и приоритету - Умение работать с графиками сгорания, таймингами - Знание и умение применять на практике методологии scrum и agile - Отличные коммуникационные навыки - Умение добиваться результата в согласованные сроки - Умение подбирать необходимых специалистов в команду - Опыт работы с jira и trello Мы предлагаем: - удаленка - официальное офомление (IT компания) - корпоративная мобильная связь - ДМС после окончания испытательного срока - годовая премия по результатам работы спасибо за интерес к нашей вакансии и хорошего Вам дня. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Привет! Меня зовут Александра - Специалист по персоналу в федеральной компании. Приглашаю в команду менеджера проекта. Рассматриваем кандидатов, проживающих только в г.Смоленск. Наша Компания работает с федеральными торговыми сетями (розница и складская логистика) на всей территории РФ . Более 12 лет оказываем услуги по оптимизированию всех бизнес-процессов компаний-партнёров, связанных с поиском персонала, расчётами и делопроизводством. Обязанности: Поиск и подбор линейного персонала; Отбор кандидатов посредством job-сайтов и телефонных интервью; Заключение договоров с сотрудниками (онлайн); Ведение отчетности, сверка табеля в автоматизированной системе учета; Взаимодействие с администрацией объектов. Что ждем от Вас: Опыт подбора персонала; Высокий уровень самоорганизации; Рассмотрим также кандидатов с опытом работы: управляющего, супервайзера, торгового представителя, администратора магазина, менеджера объекта. Что предлагаем: Удаленный формат работы ; Заработная плата (оклад + мотивация); График работы 5/2 (на связи в выходные); Испытательный срок 1 месяц; Предусмотрена система наставничества; Свобода действий при решении задач; Официальное трудоустройство через самозанятость. Компания, в связи с ростом и расширением объектов деятельности, ведет поиск Менеджера в один из филиалов. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мы торгуем на маркетплейсах в различных категориях и имеем амбициозные планы по развитию. Мы быстро растем и постоянно расширяем ассортимент товара, поэтому нам в команду нужен менеджер по рекламе и продвижению на Wildberries. Ссылка на магазин: https://www.wildberries.ru/seller/1161204 Продуктом должности будет выведенный в ТОП товар. Основными задачами будут: 1. Работа над эффективностью карточек для попадания в ТОП-8; 2. Организация улучшения упаковки, организация фотосессий, взаимодействие с подрядчиками; 3. Постоянно развивать и корректировать продукт после анализа продаж, получения обратной связи от рынка и от клиентов; 4. Формирование стратегии продвижения товаров магазина и её реализация; 5. Генерить гипотезы и запускать эксперименты для их проверки; 6. Определение ценообразования, участие в акциях; 7. Составление таблиц отчетности и мониторинга; 8. Проведение анализа конкурентов и рынка; 9. Всегда быть в курсе актуальных позиций, состояния и ситуации рынка. Ты нам нужен, если у тебя есть: Опыт управления продуктом, анализ рынка и спроса, тестирование гипотез, понимание экономики продукта; Навыки владения google-таблицами; Целеустремленность, креативность, работоспособность, проактивность; Личные компетенции: коммуникабельность, аналитический склад ума, стратегическое мышление, владение тайм-менеджментом и самостоятельность. Мы ищем автономного сотрудника, умеющего брать ответственность за свои показатели З/п: 40.000 руб оклад + KPI Удаленный формат на full-занятости с 10:00 до 19:00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">В продуктовую компанию ищем руководителя проекта с опытом реализации ML продуктов. Продукт - децентрализованная платформа для обработки больших данных (Big Data), применяется в большинстве крупных российских ритейлеров. Задачи: Управление новыми проектами и развитие текущих Разработка, согласование и контроль объема работ и планов реализации Участие в разработке и согласовании проектной документации: бизнес-требования, технические задания, архитектура. Готовность самостоятельно дорабатывать и согласовывать документы, по крайней мере, бизнес-требования. Управление группой внедрения: системные аналитики и инженеры внедрения Развитие отношений с клиентами: новые требования, управление бэклогом работ, приоритезация требований к продукту и пр. Наши ожидания от кандидата: Опыт управления проектами внедрения аналитических решений от 3 лет. Опыт разработки, контроля качества и согласования всей проектной документации уровня корпораций (стандарты BR, HLD) Желателен опыт управления несколькими проектами одновременно Опыт развития отношений с клиентами: управление ожиданиями, допродажи Базовые знания СУБД, ML, DWH/BI, стек BigData Опыт руководства проектными командами (Agile/Waterfall) Английский на уровне технической документации Условия: - Возможность поработать со сложным проектом с большими данными (Big Data) - Удаленная работа из любой точки мира - Оформление ИП/ГПХ (оплата рубли или крипта) - Полный рабочий день, 5/2 - Работа в профессиональном и атмосферном коллективе - Работа в технологичной и быстро развивающейся ИТ-компании </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Привет! Мы команда арбитражников, льем трафик на беттинг (белый). Ищем в команду сильного проджекта, который закроет на себе отдельный канал мобильные приложения. Нужно выстроить "конвеер" по созданию простых мобильных приложений. Ключевая задача: Быстро находить нужных подрядчиков и сделать так, чтобы работа была выполнена в срок. Первое время нужно будет находить программистов, для разработки простых приложений. Чем больше программистов вы найдете и разработаете их руками приложения, тем выше будет ваш доход . Требования: Вы управляли удаленной командой от 7 человек Вы знаете как быстро нанять подрядчика: копирайтеры, программисты, спецы по трафику и т.д. У вас не вызывает отрицательных эмоций или сомнения слова и ниша: ставки на спорт, беттинг, арбитраж трафика и т.д Преимуществом будет если: Вы нанимали и управляли программистами Вы ориентируетесь в беттинг Условия: Нет бюрократии и тухлых планерок. Нам важен результат, а не кол-во потраченных часов. Нет печенек в офисе. И офиса нет. Удалёнка. Фикс: 60 000 Р Бонус за результат: от 30 000 до 80 000 Р </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Служба создана во исполнение обязательств по договору на выполнение работ в отношении приборов учета электрической энергии, установленных в многоквартирных домах Ленинградской области. Что и сколько нужно делать по договору в отношении приборов учета : 1. Снимать контрольные показания 2 раза в год, приборы учета установлены в квартирах либо на лестничных площадках; общее количество приборов - порядка 200 тыс. штук; такие работы выполняют контролеры 2. Ограничивать и возобновлять подачу электроэнергии; порядка 700 шт. в месяц; такие работы делают электрики 3. Выполнять проверки, допуск в эксплуатацию приборов учета; порядка 100 шт. в месяц; это тоже электрики 4. Выполнять обследования энергопринимающих устройств потребителей в целях определения наличия (отсутствия) технической возможности установки приборов учета; и снова электрики Что делает Руководитель Службы: Планирует: Руководствуясь Требованиями Заказчика (гарантирующего поставщика электрической энергии) к объемам и срокам, и Планом проекта по доходам, расходам, и требованиями Организации к доходности Проекта Составляет планы/графики выполнения работ Составляет планы/графики привлечения персонала, закупок ресурсов 2. Организовывает, выполняет самостоятельно: 2.1. Организовывает работу исполнителей (контролеров, электриков), в том числе: Составляет маршруты Разрабатывает нормативы, выдает задания Принимает работы (результаты, отчеты) Передает результаты Заказчику 2.2. Заказывает ресурсы (материалы, оборудование, типографские услуги и т.п.) 2.3. Решает кадровые вопросы (специалист(ы) Службы, контролеры, электрики), в том числе: осуществляет подбор, организовывает инструктаж/обучение, консультирует сотрудников Службы 2.4. Готовит отчеты по формам Заказчика и по формам Организации 2.5. Решает оперативные вопросы с районными отделениями и с генеральным офисом Заказчика 3. Контролирует соблюдение регламентов, технологических процессов, перечисленных в договоре с Заказчиком. Ключевые требования: Опыт управления коллективом от 4-х человек Владение Excel (вы работате с большими объемами данных, применяете VLOOKUP, SUMPRODUCT, SUBTOTAL, IF, SUMIF, способны написать формулу с двумя-тремя уровнями вложенности скобок, применяете в работе условное форматирование, списки, группировки, сводные таблицы и диаграммы, настраиваете графики для получения наилучшего визуального эффекта) Коммуникативные навыки Работа связана со строгими сроками и/или проблемы могут возникнуть неожиданно - мы должны быть уверены, что вы быстро отреагируете и решите любые проблемы, связанные с работой. Работа связана с реулярным взаимодействием с людьми - мы должны быть уверены, что вы умеете слушать, договариваться, проявлять эмпатию, уверенность У вас есть тяга к изобретательности и совершенствованию процессов Условия работы: Срочный трудовой договор по 31.01.2024; договор может стать бессрочным, поскольку от действий руководителя Службы зависит желание Заказчика продолжить работу по договору Удаленная работа, один раз (не менее одного раза) в неделю встречаемся в офисе на Взлетной улице д. 7, обычно это происходит по понедельникам Гибкий график Возможен карьерный рост Премирование (% от коммерческих успехов проекта) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вакансия компании: Продвижение Мы компания ,которая более 10 лет создает все для спорта, заряжая на победу и ежедневные достижения Мы решили развивать направление маркетплейсов. Поэтому ищем в нашу дружную команду человека,которому будет интересно расти и развиваться в этом направлении Формат: удаленная работа. Для успешных сотрудников возможны командировки в Турцию за наш счет( так как там находится наше производство) Вам предстоит: - работа с карточками товара: заведение новых карточек, создание описания, работа с характеристиками, цветами,размерами и т.п.; - подготовка Тз для дизайнера и фотографа - анализ товаров конкурентов, мониторинг их цен, предложений; - подготовка отчетов (ежедневно и еженедельно); - контроль остатков, оборачиваемости товара; - формирование поставок Fbo; - работа с отзывами покупателей; - в дальнейшем адаптация и обучение новых сотрудников( к этому моменту планируем вас повысить до руководителя направления и увеличить зп в 2 раза) Рады видеть вас в кандидатах, если вы: - хотите разобраться во всех нюансах работы на маркетплейсах; - внимательны и ответственны - имеете опыт работы в продажах,рекламе, снабжении или оптовых закупках. Ну или просто большое желание разобраться в новом направлении - если сами увлекаетесь спортом,то будет вашим преимуществом Вы получите: - работу в крупной стабильной компании; - возможность проходить обучение в различных направлениях и повышать свой личностный и профессиональный уровень; - работу в команде профессионалов; - график работы 5/2 со свободным графиком - возможность быстрого карьерного роста Если Вам понравилась данная вакансия, то оставьте отклик прямо сейчас! Тип занятости: частичная Требуется менеджер интернет-проектов/оператор пк на удаленную работу Оператор пк, оператор, руководитель проекта, оператор в отдел сервисного обслуживания, оператор справочной службы, руководитель, менеджер проекта, менеджер it-проекта, project manager, оператор на телефоне, оператор контрольно-справочного участка, менеджер интернет-проекта, оператор базы данных, оператор на дому </t>
   </si>
 </sst>
 </file>
@@ -764,7 +969,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -804,25 +1009,25 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -830,28 +1035,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -859,28 +1064,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -888,28 +1093,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -917,28 +1122,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -946,28 +1151,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -975,28 +1180,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1004,28 +1209,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1033,28 +1238,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1062,28 +1267,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1091,28 +1296,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1120,28 +1325,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1149,28 +1354,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1178,28 +1383,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1207,28 +1412,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="H16" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I16" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1236,28 +1441,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="G17" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1265,28 +1470,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="G18" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="H18" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1294,28 +1499,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="G19" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I19" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1323,28 +1528,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="H20" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I20" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1352,28 +1557,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="H21" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I21" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1381,28 +1586,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="G22" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="H22" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I22" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1410,28 +1615,115 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="H23" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I23" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/report/excel/shorts_report.xlsx
+++ b/report/excel/shorts_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="469">
   <si>
     <t>out_admin_channel</t>
   </si>
@@ -43,582 +43,1391 @@
     <t>-</t>
   </si>
   <si>
-    <t>53260</t>
-  </si>
-  <si>
-    <t>53086</t>
-  </si>
-  <si>
-    <t>53084</t>
-  </si>
-  <si>
-    <t>53146</t>
-  </si>
-  <si>
-    <t>53614</t>
-  </si>
-  <si>
-    <t>53491</t>
-  </si>
-  <si>
-    <t>53748</t>
-  </si>
-  <si>
-    <t>53465</t>
-  </si>
-  <si>
-    <t>53790</t>
-  </si>
-  <si>
-    <t>53645</t>
-  </si>
-  <si>
-    <t>53573</t>
-  </si>
-  <si>
-    <t>53605</t>
-  </si>
-  <si>
-    <t>53677</t>
-  </si>
-  <si>
-    <t>53988</t>
-  </si>
-  <si>
-    <t>53977</t>
-  </si>
-  <si>
-    <t>53978</t>
-  </si>
-  <si>
-    <t>54227</t>
-  </si>
-  <si>
-    <t>54283</t>
-  </si>
-  <si>
-    <t>54309</t>
-  </si>
-  <si>
-    <t>54380</t>
-  </si>
-  <si>
-    <t>54394</t>
-  </si>
-  <si>
-    <t>54410</t>
-  </si>
-  <si>
-    <t>54439</t>
-  </si>
-  <si>
-    <t>54468</t>
-  </si>
-  <si>
-    <t>54530</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Екатеринбург #офис #вакансия #DS #ML #временныеряды  </t>
-  </si>
-  <si>
-    <t>📂 Project Manager — BisPro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#дайджест #marketing #manager </t>
-  </si>
-  <si>
-    <t>#вакансия  #работа #QA  #нагрузочноетестирование #perfomance</t>
-  </si>
-  <si>
-    <t>Search Evaluator</t>
+    <t>165462</t>
+  </si>
+  <si>
+    <t>165298</t>
+  </si>
+  <si>
+    <t>165299</t>
+  </si>
+  <si>
+    <t>165300</t>
+  </si>
+  <si>
+    <t>165301</t>
+  </si>
+  <si>
+    <t>165302</t>
+  </si>
+  <si>
+    <t>165303</t>
+  </si>
+  <si>
+    <t>165304</t>
+  </si>
+  <si>
+    <t>165305</t>
+  </si>
+  <si>
+    <t>165325</t>
+  </si>
+  <si>
+    <t>165352</t>
+  </si>
+  <si>
+    <t>165306</t>
+  </si>
+  <si>
+    <t>165307</t>
+  </si>
+  <si>
+    <t>165308</t>
+  </si>
+  <si>
+    <t>165309</t>
+  </si>
+  <si>
+    <t>165310</t>
+  </si>
+  <si>
+    <t>165311</t>
+  </si>
+  <si>
+    <t>165312</t>
+  </si>
+  <si>
+    <t>165313</t>
+  </si>
+  <si>
+    <t>165314</t>
+  </si>
+  <si>
+    <t>165315</t>
+  </si>
+  <si>
+    <t>165316</t>
+  </si>
+  <si>
+    <t>165326</t>
+  </si>
+  <si>
+    <t>165327</t>
+  </si>
+  <si>
+    <t>165328</t>
+  </si>
+  <si>
+    <t>165329</t>
+  </si>
+  <si>
+    <t>165334</t>
+  </si>
+  <si>
+    <t>165335</t>
+  </si>
+  <si>
+    <t>165336</t>
+  </si>
+  <si>
+    <t>165337</t>
+  </si>
+  <si>
+    <t>165338</t>
+  </si>
+  <si>
+    <t>165339</t>
+  </si>
+  <si>
+    <t>165340</t>
+  </si>
+  <si>
+    <t>165320</t>
+  </si>
+  <si>
+    <t>165317</t>
+  </si>
+  <si>
+    <t>165318</t>
+  </si>
+  <si>
+    <t>165319</t>
+  </si>
+  <si>
+    <t>165321</t>
+  </si>
+  <si>
+    <t>165468</t>
+  </si>
+  <si>
+    <t>165467</t>
+  </si>
+  <si>
+    <t>165466</t>
+  </si>
+  <si>
+    <t>165465</t>
+  </si>
+  <si>
+    <t>165464</t>
+  </si>
+  <si>
+    <t>165463</t>
+  </si>
+  <si>
+    <t>165351</t>
+  </si>
+  <si>
+    <t>165350</t>
+  </si>
+  <si>
+    <t>165349</t>
+  </si>
+  <si>
+    <t>165348</t>
+  </si>
+  <si>
+    <t>165347</t>
+  </si>
+  <si>
+    <t>165346</t>
+  </si>
+  <si>
+    <t>165345</t>
+  </si>
+  <si>
+    <t>165344</t>
+  </si>
+  <si>
+    <t>165343</t>
+  </si>
+  <si>
+    <t>165342</t>
+  </si>
+  <si>
+    <t>165341</t>
+  </si>
+  <si>
+    <t>165330</t>
+  </si>
+  <si>
+    <t>165331</t>
+  </si>
+  <si>
+    <t>165332</t>
+  </si>
+  <si>
+    <t>165333</t>
+  </si>
+  <si>
+    <t>165353</t>
+  </si>
+  <si>
+    <t>165354</t>
+  </si>
+  <si>
+    <t>165355</t>
+  </si>
+  <si>
+    <t>165356</t>
+  </si>
+  <si>
+    <t>165388</t>
+  </si>
+  <si>
+    <t>165357</t>
+  </si>
+  <si>
+    <t>165358</t>
+  </si>
+  <si>
+    <t>165359</t>
+  </si>
+  <si>
+    <t>165360</t>
+  </si>
+  <si>
+    <t>165361</t>
+  </si>
+  <si>
+    <t>165362</t>
+  </si>
+  <si>
+    <t>165363</t>
+  </si>
+  <si>
+    <t>165364</t>
+  </si>
+  <si>
+    <t>165365</t>
+  </si>
+  <si>
+    <t>165380</t>
+  </si>
+  <si>
+    <t>165381</t>
+  </si>
+  <si>
+    <t>165382</t>
+  </si>
+  <si>
+    <t>165383</t>
+  </si>
+  <si>
+    <t>165384</t>
+  </si>
+  <si>
+    <t>165385</t>
+  </si>
+  <si>
+    <t>165386</t>
+  </si>
+  <si>
+    <t>165387</t>
+  </si>
+  <si>
+    <t>165389</t>
+  </si>
+  <si>
+    <t>165390</t>
+  </si>
+  <si>
+    <t>165391</t>
+  </si>
+  <si>
+    <t>165392</t>
+  </si>
+  <si>
+    <t>165393</t>
+  </si>
+  <si>
+    <t>165394</t>
+  </si>
+  <si>
+    <t>165395</t>
+  </si>
+  <si>
+    <t>165396</t>
+  </si>
+  <si>
+    <t>165397</t>
+  </si>
+  <si>
+    <t>165398</t>
+  </si>
+  <si>
+    <t>165399</t>
+  </si>
+  <si>
+    <t>165404</t>
+  </si>
+  <si>
+    <t>165405</t>
+  </si>
+  <si>
+    <t>165406</t>
+  </si>
+  <si>
+    <t>165407</t>
+  </si>
+  <si>
+    <t>165366</t>
+  </si>
+  <si>
+    <t>165367</t>
+  </si>
+  <si>
+    <t>165368</t>
+  </si>
+  <si>
+    <t>165369</t>
+  </si>
+  <si>
+    <t>165370</t>
+  </si>
+  <si>
+    <t>165371</t>
+  </si>
+  <si>
+    <t>165372</t>
+  </si>
+  <si>
+    <t>165373</t>
+  </si>
+  <si>
+    <t>165374</t>
+  </si>
+  <si>
+    <t>165375</t>
+  </si>
+  <si>
+    <t>165376</t>
+  </si>
+  <si>
+    <t>165377</t>
+  </si>
+  <si>
+    <t>165378</t>
+  </si>
+  <si>
+    <t>165379</t>
+  </si>
+  <si>
+    <t>165400</t>
+  </si>
+  <si>
+    <t>165401</t>
+  </si>
+  <si>
+    <t>165402</t>
+  </si>
+  <si>
+    <t>165403</t>
+  </si>
+  <si>
+    <t>165408</t>
+  </si>
+  <si>
+    <t>165409</t>
+  </si>
+  <si>
+    <t>165449</t>
+  </si>
+  <si>
+    <t>165428</t>
+  </si>
+  <si>
+    <t>165427</t>
+  </si>
+  <si>
+    <t>165426</t>
+  </si>
+  <si>
+    <t>165425</t>
+  </si>
+  <si>
+    <t>165424</t>
+  </si>
+  <si>
+    <t>165446</t>
+  </si>
+  <si>
+    <t>165448</t>
+  </si>
+  <si>
+    <t>165435</t>
+  </si>
+  <si>
+    <t>165436</t>
+  </si>
+  <si>
+    <t>165437</t>
+  </si>
+  <si>
+    <t>165438</t>
+  </si>
+  <si>
+    <t>165439</t>
+  </si>
+  <si>
+    <t>165440</t>
+  </si>
+  <si>
+    <t>165441</t>
+  </si>
+  <si>
+    <t>165442</t>
+  </si>
+  <si>
+    <t>165443</t>
+  </si>
+  <si>
+    <t>165444</t>
+  </si>
+  <si>
+    <t>165445</t>
+  </si>
+  <si>
+    <t>165447</t>
+  </si>
+  <si>
+    <t>165410</t>
+  </si>
+  <si>
+    <t>165411</t>
+  </si>
+  <si>
+    <t>165412</t>
+  </si>
+  <si>
+    <t>165413</t>
+  </si>
+  <si>
+    <t>165414</t>
+  </si>
+  <si>
+    <t>165415</t>
+  </si>
+  <si>
+    <t>165416</t>
+  </si>
+  <si>
+    <t>165417</t>
+  </si>
+  <si>
+    <t>165418</t>
+  </si>
+  <si>
+    <t>165419</t>
+  </si>
+  <si>
+    <t>165420</t>
+  </si>
+  <si>
+    <t>165421</t>
+  </si>
+  <si>
+    <t>165422</t>
+  </si>
+  <si>
+    <t>165423</t>
+  </si>
+  <si>
+    <t>165429</t>
+  </si>
+  <si>
+    <t>165430</t>
+  </si>
+  <si>
+    <t>165431</t>
+  </si>
+  <si>
+    <t>165432</t>
+  </si>
+  <si>
+    <t>165433</t>
+  </si>
+  <si>
+    <t>165434</t>
+  </si>
+  <si>
+    <t>165450</t>
+  </si>
+  <si>
+    <t>165453</t>
+  </si>
+  <si>
+    <t>165452</t>
+  </si>
+  <si>
+    <t>165451</t>
+  </si>
+  <si>
+    <t>165461</t>
+  </si>
+  <si>
+    <t>165460</t>
+  </si>
+  <si>
+    <t>165459</t>
+  </si>
+  <si>
+    <t>165458</t>
+  </si>
+  <si>
+    <t>165457</t>
+  </si>
+  <si>
+    <t>165456</t>
+  </si>
+  <si>
+    <t>165455</t>
+  </si>
+  <si>
+    <t>165454</t>
+  </si>
+  <si>
+    <t>Project manager SMM</t>
+  </si>
+  <si>
+    <t>Менеджер по продукту (медицинские услуги)</t>
+  </si>
+  <si>
+    <t>Project-manager (Junior) / Менеджер проекта</t>
+  </si>
+  <si>
+    <t>Chief Product Officer</t>
   </si>
   <si>
     <t>Product Manager</t>
   </si>
   <si>
+    <t>IT Project manager</t>
+  </si>
+  <si>
+    <t>IT Project Manager</t>
+  </si>
+  <si>
+    <t>SaaS Product Manager, Remote</t>
+  </si>
+  <si>
+    <t>Project Manager - Сreative production (GameDev)</t>
+  </si>
+  <si>
+    <t>Руководитель направления</t>
+  </si>
+  <si>
+    <t>Руководитель проектов / Middle</t>
+  </si>
+  <si>
+    <t>Руководитель IT проектов</t>
+  </si>
+  <si>
+    <t>Руководитель проектов</t>
+  </si>
+  <si>
+    <t>Бизнес-партнер по персоналу</t>
+  </si>
+  <si>
+    <t>Senior Project Manager</t>
+  </si>
+  <si>
+    <t>Руководитель проекта</t>
+  </si>
+  <si>
+    <t>Руководитель проектов / Директор по строительству</t>
+  </si>
+  <si>
+    <t>Менеджер проекта (project-менеджер)</t>
+  </si>
+  <si>
     <t>Project Manager</t>
   </si>
   <si>
-    <t>Technical Senior Project Manager</t>
-  </si>
-  <si>
-    <t>Product Manager (getUNIQ)</t>
-  </si>
-  <si>
-    <t>Руководитель проектов (удаленная работа)</t>
-  </si>
-  <si>
-    <t>Project Manager (удаленная работа)</t>
-  </si>
-  <si>
-    <t>Project Manager (тренер курсов по управлению проектами в IT)</t>
-  </si>
-  <si>
-    <t>Licensed practical Nurse</t>
-  </si>
-  <si>
-    <t>Project Manager eCommerce</t>
-  </si>
-  <si>
-    <t>Test Manager</t>
-  </si>
-  <si>
-    <t>Руководитель по работе с маркетплейсом WB/Руководитель направления E-commerce (удаленная работа)</t>
-  </si>
-  <si>
-    <t>IT Project Manager (удаленная работа)</t>
-  </si>
-  <si>
-    <t>Project manager (удаленно)</t>
-  </si>
-  <si>
-    <t>Менеджер по персоналу / Менеджер проекта (удаленная работа)</t>
-  </si>
-  <si>
-    <t>Project-manager Wildberries (удаленная работа)</t>
-  </si>
-  <si>
-    <t>Руководитель проекта (BigData) (удаленная работа)</t>
-  </si>
-  <si>
-    <t>Project manager/Менеджер проекта (Беттинг) (удаленная работа)</t>
-  </si>
-  <si>
-    <t>Руководитель службы/руководитель направления (удаленная работа)</t>
-  </si>
-  <si>
-    <t>Менеджер интернет-проектов/оператор Пк на удаленную работу</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Формат: офис (локация Екатеринбург)  
-Должность: Руководитель направления по исследованию данных  
-Заработная плата: от 200 000 ₽ на руки + бонусы  
-Задачи:  
-• Исследовать логику бизнес-процессов, выделять базовые составляющие и взаимосвязи между ними  
-• Формулировать постановку предиктивных задач и контролировать сроки их выполнения командой исследователей данных.                                                   
-• Выдвигать гипотезы и проверять их при помощи инструментов графического и статистического анализа данных  
-• Разрабатывать предиктивные модели, используя эконометрические методы, статистические методы и методы машинного обучения  
-• Презентовать и защищать логику и метрики качества моделей перед проектной командой и заказчиками предиктивных моделей  
-• Контролировать качество реализации предиктивных моделей на этапе внедрения модели  
-• Проводить исследования в области прикладных математических алгоритмов и методов, используемых в задачах машинного обучения.  
-Ожидания от соискателя:  
-• Опыт применения методов машинного обучения для решения задач прогнозирования, реализованные проекты  
-• Понимание логики работы банковских продуктов  
-• Опыт управления командой разработки предиктивных решений  
-• Уверенные знания в области математической статистики, теории вероятностей, методов машинного обучения и анализа данных  
-• Умение грамотно структурировать и презентовать информацию  
-• Стек: Python, SQL  
-• Опыт работы с библиотеками: Sklearn, Pandas, Statsmodels, Xgboost/Lightgbm/Catboost, RandomForest.  
-Работа у нас это:  
-• Работа в команде экспертов и профессионалов своего дела  
-• Официально оформление по ТК РФ  
-• Возможность работы с новыми технологиями  
-• Обучение за счёт компании  
-• Расширенный ДМС со стоматологией  
-• Корпоративный спортзал и скидки в спортзалы-партнеры 
-Контакт: @lightelen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Удалёнка, от 50.000р.
-🗞 Что делать?
-• Работа с подрядчиками и правильное прописывание ТЗ (тексты, продающие видео, SMM, сборка воронок, трафик).
-• Выполнение операционных и технических задач проекта.
-• Составление регламентов по работе команды.
-• Письмо текстов к постам, сценариев.
-• Разработка контент-плана.
-💬 Какие требования?
-• Опыт успешных запусков и масштабирования онлайн-школ.
-• Опыт работы с платформой GetCourse.
-• Умение работать в команде.
-• Составление регламентов по работе команды.
-• Прохождение обучения у Маричевой, Афониной или Accel.
-📩 Куда откликаться?
-@danilmayorov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Вакансии в Kodland 
-🌎Удалённая работа из любой точки мира!
-Kodland - международная онлайн-школа по обучению программированию, цифровому творчеству и базовым компьютерным знаниям. 
-🔹Project Manager (LatAm)
-🔹Junior Project Manager (LatAm)
-Marketing:
-🔹Senior User Acquisition Manager
-🔹CIS Marketing Lead
-🔹Senior User Acqquisition Manager
-🔹Growth Marketing Manager
-🔹Global Paid Social Lead
-🔹CIS Chief Marketing Officer
-🔹Social Media Marketing Manager 
-Engineering:
-🔹Development Team Lead 
-Контакты для отклика: 
-Telegram: @kodland_jobs
-Почта: natalia.belokonskaya@kodland.team
-Свежие вакансии для релокации на Young Relocate✈️</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-🔥Вакансия: Руководитель направления нагрузочного тестирования🔥
-💰 до 420к
-Название компании: Selecty IT
-Формат работы: удаленный
-Занятость: полная
-💌Контакты: @NickyJordan
-Всем привет! ✌️
-Я нахожусь в поиске Руководителя направления по производительности на проекты Банка ТОП-10 
-🔴Основные обязанности на проекте:
-· Обеспечение прозрачности, качества, выдерживания сроков работ по нагрузочному тестированию и оптимизации производительности систем.
-· Курирование организационное и техническое работ менеджеров по производительности в рамках обозначенного направления.
-· Развитие методологий и инструментов, использующихся для контроля производительности
-🔴Цели:
-· Организация деятельности направления производительности.
-· Распределение ресурсов внутри направления исходя из приоритета задач.
-· Подбор, обучение, менторство и развитие менеджеров по производительности
-· Контроль производительности по 5 или более ИТ системам в рамках своего направления 
-· Распределение задач исходя из их приоритета, контроль качества и сроки их выполнения, оказание экспертной помощи при их выполнении менеджерам по производительности
-· Обеспечение прозрачности процессов, связанных с производительностью, для направления;
-· Ведение в части производительности пилотных проектов по полностью новым для Банка направлениям;
-· Решение организационно, в рамках своей экспертизы, сложных технических проблем,
-возникающих в промышленной эксплуатации или нагрузочном тестировании по своему и смежным направлениям;
-· Развитие системы мониторинга и инструментов автоматизации, используемых подразделением и в промышленной эксплуатации;
-· Организация взаимодействия с бизнес-заказчиками.
-· Функциональное руководство от 5ти до 8ми сотрудников (менеджеров по производительности)
-🔴Требования:
-· хорошее знание и понимание архитектуры бизнес систем;
-· опыт работы с HP Performance Center или аналогами;
-· опыт публичных выступлений и презентаций;
-· опыт профилирования промышленных систем;
-· опыт анализа проблем производительности серверов приложений и баз данных в популярном технологическом стеке ( Oracle , SQL Server , Postgres, IIS, WAS) не менее 2 лет;
-· хорошие организаторские способности;
-· опыт оптимизации производительности крупных ИТ систем от 3 лет;
-· опыт нагрузочного тестирования от 4 лет;
-· наличие экспертизы по производительности по заметной группе ИТ систем;
-· умение находить верную причину и решать проблемы (problem solving);
-· опыт управления коллективом от 5 до 10 человек
-· опыт неоднократного решения "сквозных проблем" возникающих сразу в нескольких системах (хороший problem solver);
-· опыт автоматизации с использованием Jenkins, Ansible или аналогов не менее 1 года;
-🔴Условия:
-Официальное оформление в IT-компанию
-Предоставление техники для работы
-Удаленная работа
-Официальное оформление по ТК РФ ( также возможно заключение договора ГПХ или с ИП)
-ДМС со стоматологией
-Скидки на изучение иностранных языков от Skyeng
-Скидки на фитнес от Xfit
-ЗП до 420 000 руб/мес (зависит от опыта)
-Обсудим?
-💌 Напиши мне @NickyJordan</t>
-  </si>
-  <si>
-    <t>Do you like reading financial news and learning about the ebbs and flows of various financial markets?  We do too! Come and join us at Appen!
-Why Appen?
-You enjoy competitive pay and benefit from having no set work hours or schedules. You will have the flexibility to schedule your hours to fit your lifestyle and to work around your career and family demands. You have the freedom to choose when and how much you would like to work.
-Here"s why this project may be a great fit for you:
-	• No commute and flexible hours - work from home when you want! This project typically offers work 7 days a week
-	• Interesting &amp; informative work - you will be exposed to different news articles and information - while getting paid!
-	• Sense of achievement - you will be making the end-user experience on financial news better!
-	• Attentive management team - our Project Managers are always here to assist you in any way we can!
-No experience is necessary, all you need is:
-	• Be a fluent speaker of Russian skills residing in Kyrgyzstan
-	• Have at least an intermediate proficiency in English to understand the project instructions 
-	• A personal computer with a secure and stable internet connection
-	• Willingness to comprehend and follow instructions independently
-As a member of this project, you"ll have the opportunity to make a real impact on the end-user experience of financial news. Your work will contribute to improving the quality and accessibility of financial information.
-So, how to start? Create your own Appen Account using the link below.
-https://connect.appen.com/qrp/public/project?type=search_evaluation&amp;utm_campaign=RemoteHubAajon_BaffinKG__
-	• Choose Russian (Kyrgyzstan) as your primary language
-	• Complete your profile and project registration [5 min]
-	• Study the provided guidelines [at your own pace] 
-	• Agree to confidentiality and ways of working rules 
-	• Pass the quiz 
-Thank you and we hope to work with you soon! 
-"Appen has a diverse, inclusive culture that is vital to our mission of helping build better AI. We offer opportunities for individuals of all abilities and backgrounds."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We are seeking for an experienced product manager coming from the iGaming industry who will act as a fully committed and hands-on professional, having a direct impact on internal and external departments. 
-Responsibilities:
-•	Manage tactical or strategic roadmap projects as assigned. 
-•	Develop and execute a product strategy for casino and sportsbook products that aligns with the company"s goals and objectives.
-•	Define the product roadmap and user stories in collaboration with business stakeholders.
-•	Conduct market research and analysis to identify customer needs and competitive landscape.
-•	Oversee the promotions, games, website graphics, and bring new ideas to their online gaming platform.
-•	Generate leads, approach new markets, make deals with providers, and generate marketing.
-•	Work closely with development teams to ensure that product requirements are clearly defined and executed.
-•	Collaborate with internal resources.
-•	Ensure product releases are on time and meet internal and external clients’ needs.
-•	Communicate with management, senior executives and stakeholders on product direction, strategy and upcoming projects.
-•	Advise internal teams on decisions and questions related.
-•	Create and maintain product and process documentation on an ongoing basis.
-Requirements:
-•	At least 3-4 years of previous successful and hands-on experience as online product manager, overseeing a dedicated team and managing product prioritization, roadmap, and delivery of user-facing functionality.
-•	Must have working experience within the iGaming Industry/ Online Casino/ Sports betting Industry within European markets and strong understanding of the online gaming market, including games, promotions, marketing, and customer experience.
-•	Experience with Agile development methodologies and product management tools (e.g., JIRA).
-•	Bachelor"s degree in business, marketing, engineering, or related field.
-•	Technical and Business acumen is a must
-•	Excellent written and verbal communication skills
-•	Strong problem solving skills
-•	Strong analytical and problem-solving skills.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Southmedia — агентство перфоманс-маркетинга с экспертизой в сфере недвижимости и авто. Мы 14 лет в деле. Работаем с автохолдингами и крупными девелоперами. В 2022 году открыли филиал в Дубае, где успешно работаем с агентствами недвижимости.‍
-Настраиваем контекстную, таргетированную и медийную рекламу для десятков проектов. Разрабатываем онлайн-сервисы, сайты, онлайн- и офлайн-рекламу, брендинг. Создаём сложные интеграции с CRM, телефонией, рекламными кабинетами и прочими сервисами.‍‍
-У нас большая сильная команда и мы её расширяем, поэтому ищем опытного менеджера проектов. Здорово, если сработаемся именно с тобой!
-‍
-Что тебе предстоит делать:
-управлять проектами технической поддержки веб-сайтов и сервисов автоматизации на всех стадиях: от идеи до сдачи;
-управлять командой специалистов: составлять техзадание, контролировать ежедневную нагрузку, расход времени, промежуточные и итоговые результаты;
-вести переговоры с клиентами (в том числе и иностранными) по текущим проектам, оперативно решать возникающие вопросы;
-управлять ожиданиями клиентов;
-принимать решение по оптимизации работы техподдержки;
-вести отчетность по проектам для непосредственного руководителя.
-Ты справишься, если:
-успешно выполняешь аналогичные задачи не меньше 2-х лет;
-владеешь английским языком не ниже уровня intermediate;
-плодотворно ведёшь устные и письменные переговоры;
-тебе хорошо знакомы понятия 1C-Bitrix, HTML, PHP, JavaScript, CSS;
-будет здорово если ты успешно закончил курсы по проектному управлению.
-И ещё мы ждём, что ты:
-мыслишь здраво и системно;
-не паникуешь в случае факапа, а предлагаешь решения;
-умеешь аргументированно защищать работу своей команды;
-задаешь правильные вопросы и находишь нужную информацию;
-стремишься самостоятельно понять суть задачи, а не просто бездумно передать требования заказчика;
-следишь за digital-трендами, любишь учиться.
-Что взамен:
-достойная зарплата, возможность карьерного и финансового роста;
-работа с крупными клиентами, которые обогатят твоё портфолио;
-классная команда: убедишься, когда с нами познакомишься;
-руководители, которые всегда готовы к диалогу и поддерживают инициативы;
-обучающие курсы, книжки, спорт — мы оплатим полностью или частично;
-частичная компенсация расходов на психолога;
-дополнительные выходные дни помимо основного отпуска;
-рабочий день с 9 до 18 или с 10 до 19 — как ты захочешь;
-оформление по ТК РФ (отпуск и больничный полностью оплачиваются).
-Если выбираешь офисную работу, то ещё:
-рабочее место в стильном офисе с MAC и видом на озеро;
-свежие фрукты, чай, какао, молоко, немолоко, кофемашина;
-бесплатная корпоративная йога 2 раза в неделю;
-настольный футбол.
-Офис в Краснодаре, но мы готовы сотрудничать дистанционно.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you like reading financial news and learning about the ebbs and flows of various financial markets?  We do too! Come and join us at Appen!
-Why Appen?
-You enjoy competitive pay and benefit from having no set work hours or schedules. You will have the flexibility to schedule your hours to fit your lifestyle and to work around your career and family demands. You have the freedom to choose when and how much you would like to work.
-Here"s why this project may be a great fit for you:
-	• No commute and flexible hours - work from home when you want! This project typically offers work 7 days a week
-	• Interesting &amp; informative work - you will be exposed to different news articles and information - while getting paid!
-	• Sense of achievement - you will be making the end-user experience on financial news better!
-	• Attentive management team - our Project Managers are always here to assist you in any way we can!
-No experience is necessary, all you need is:
-	• Be a fluent speaker of Russian skills residing in Kyrgyzstan
-	• Have at least an intermediate proficiency in English to understand the project instructions 
-	• A personal computer with a secure and stable internet connection
-	• Willingness to comprehend and follow instructions independently
-As a member of this project, you"ll have the opportunity to make a real impact on the end-user experience of financial news. Your work will contribute to improving the quality and accessibility of financial information.
-So, how to start? Create your own Appen Account using the link below.
-https://connect.appen.com/qrp/public/project?type=search_evaluation&amp;utm_campaign=RemoteHubAajon_BaffinKG__
-	• Choose Russian (Kyrgyzstan) as your primary language
-	• Complete your profile and project registration [5 min]
-	• Study the provided guidelines [at your own pace] 
-	• Agree to confidentiality and ways of working rules 
-	• Pass the quiz 
-Thank you and we hope to work with you soon! 
-"Appen has a diverse, inclusive culture that is vital to our mission of helping build better AI. We offer opportunities for individuals of all abilities and backgrounds."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We are looking for a communicative, experienced, and skillful Technical Project Manager to empower our game development team.
-ATTENTION: Pingle Studio DOES NOT HIRE from Russian Federation.
-Над чем работать?
--Платформы: PC, Mobile, Console
-На какие задачи (обязанности)?
--Schedule &amp; provide regular status reports of the projects;
--Planning, executing and monitoring the project roadmap;
--Provide feedback on priorities, objectives, and expectations;
--Track performance of the team members;
--Manage resources, time and scope of projects to ensure project delivery is in line with the requirements of the company and the client.
-Какого профессионала ищем?
--4+ years of experience in outsource or mixed company (outsource is a must) as a Project Manager;
--At least Upper-intermediate English both spoken and written;
--Excellent skills in all key project management steps: project launch, working in sync with development and client teams, working on charge requisitions, coordinating additional work, syncing with the business development team, creating current and final deliverables, and project finish;
--Experience working with technical teams of development, understanding of the interaction between them;
--Understanding of the specifics of full-cycle project management, understanding how the game should look at each stage of its creation within the full-cycle project;
--Deep knowledge of various project management techniques and approaches (Agile, Waterfall etc.);
--Good understanding of development processes and pipelines;
--Experience in JIRA administration (workflow setup, ticket filling settings, automation and restrictions);
--Experience with scheduling and project tracking software (Jira, Confluence, Google services (docs, sheets etc).
-Great to have:
--Experience in GameDev outsource company;
--Art Pipelines understanding;
--Experience in Game Porting for different platforms (Xbox, PS, Nintendo Switch, mobile, to see the exact projects will be perfect);
--Understand the criteria for assessing the quality of builds (FPS, memory, etc.) at each stage of game porting;
--Have CCPM (Critical Chain Project Management) certification.
-Что для нас важно в человеке?
--Excellent communication skills and assertiveness;
--Ability to convey thoughts and messages in a clear and neat way.
-Какие условия и бонусы?
--Fast hiring and clear process;
--20 Paid Vacation Days;
--10 Paid Sick Leave Days;
--Regular salary reviews;
--Personal Development Plan for clear growing of skills;
--Accountant support and full taxes coverage;
--Comfortable Office Location and the ability to work remotely;
--Corporate English lessons;
--Advanced training: compensation of 50% of the cost of training courses, video courses;
--Career Path and Mentorship Program;
--Referral internal Program: Active Program with Great Bonuses;
--Сommunity of people who understand your game passion.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MitGo — глобальная технологическая компания, ориентированная на предоставление инновационных решений и развитие предпринимательства. Наша цель — создавать, инвестировать и развивать онлайн-бизнес. Mitgo предлагает решения и услуги в секторах MarTech, FinTech, Smart Shopping и IT-инкубации стартапов. В компании со штаб-квартирой в Неккарзульме, Германия, работает более 800 специалистов в более чем 10 офисах в США (Чикаго), Европе (Амстердам, Варшава, Минск и Тбилиси), Бразилии (Сан-Паулу), ОАЭ (Дубай) и Индия (Гуруграм). Мы ищем Senior Product Manager в команду getUNIQ, которому предстоит:   Возглавить продуктовую работу в её R&amp;D части:   формулировать и проверять имеющиеся гипотезы;   запускать и масштабировать новые продукты и инструменты и развивать имеющиеся;     Поддерживать принятую в команде и компании систему планирования, приоритизации и отчётности, а также активно участвовать в её улучшении;   Разрабатывать и актуализировать средне- и долгосрочный roadmap;   Участвовать в выработке долгосрочной продуктовой стратегии и видения по продукту вместе со стейкхолдерами;   Участвовать в масштабировании продукта на новые географии;   Формировать иерархию метрик и отслеживать их состояние.   О проекте getUNIQ – это SaaS платформа, агрегатор рекламных сетей с элементами финансового процессинга для автоматизации и управлении трафиком, рекламным аккаунтами и бюджетом клиента. О команде Суммарно вы будете непосредственно работать с командой из 32 человек. Также доступны централизованные ресурсы: продуктовая аналитика, продуктовый дизайн, user research центр Что хотим:   Опыт работы в продуктовой команде в роли Head of product / Senior Product Manager;   Опыт работы с AdTech / MarTech продуктами, понимание рынка рекламы или опыт в FinTech;   Умение структурировать информацию, сохранять сложный контекст и отделять главное от второстепенного;   Отличное понимание продуктовых метрик;   Умение декомпозировать и делать работу поэтапно;   Умение проводить конкурентный анализ и User Research;   Умение исследовать рынок и быстро погружаться в новые предметные области;   Продуктовый подход. Понимание того как проводятся эксперименты, фокус на быструю проверку гипотезы при минимальных или отсутствующих затратах на разработку.   Будет плюсом:   Возможность регулярно бывать в московском офисе компании;   Опыт вывода продуктов на новые рынки.   Что предлагаем:   Все по ТК и даже больше - дополнительные отгулы и доплата за дни больничного листа;   Гибридный формат работы (офис/удаленка);   Ноутбуки для комфортной работы из дома;   Современный офис с игровой зоной, фруктами и напитками;   ДМС со стоматологией после прохождения испытательного срока;   Корпоративный абонемент в фитнес клуб;   Обучающие курсы, тренинги и конференции;   Скидка на изучение английского языка в SkyEng;   Эффективная программа адаптации для новых сотрудников;   Корпоративы и тимбилдинги.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIGITECH является аккредитованной ИТ компанией. За годы работы мы успешно реализовали все проекты по разработке ПО и стали надежным ИТ-партнером для разных бизнес-направлений: крупные оптово-розничные сети, логистические операторы и e-commerce. Мы ценим гибкость мышления, честность, открытость и командную работу. Сегодня в наших офисах в Москве, Санкт Петербурге, Новосибирске, Екатеринбурге работают более 250 штатных сотрудников (из них более 246 технических специалистов). DIGITECH разрабатывает и внедряет: Кассовое и розничное ПО для розничных сетей Сайты, маркетплейсы, мобильные приложения WMS и TMS системы для логистических комплексов, распределительных центров и дарксторов ERP системы и системы внутреннего учета бизнеса Проекты повышения эффективности управления информационной безопасностью. Мы работаем по SCRUM , в Jira и Confluence. В команду мы приглашаем Руководителя проектов. МЫ ГОТОВЫ ПРЕДЛОЖИТЬ СРАЗУ: Возможность влиять на продукт, предлагать свои идеи по развитию, реализовывать их и сразу видеть результат Адекватная, сильная команда Режим работы: удаленный формат (по желанию есть офис в центре) Персональное предложение по заработной плате, соответствующее опыту и вашим ожиданиям Расширенный социальный пакет (ДМС, после 3-х месяцев работы) У нас проходит одна встреча и сразу с командой (общаемся по zoom: знакомимся с Вами как с человеком и специалистом, время встречи 1 (один) час) Мы всегда делаем официальный offer (это гарантия, что мы Вас ждем!) СУТЬ РАБОТЫ: Анализ заявки на проект, анализ ФЭО, формирование проектной команды, определение и согласование границы проекта SCP и всех заинтересованных лиц, Формирование и утверждение требований BRD, планирование реализации проекта ROAD MAP Заведение задач по проекту в Jira, установка приоритетов, документирование доработок на Confluence Еженедельная актуализация статуса проекта в карточке проекта Исполнение и контроль реализации проекта (срок и вкл. контроль освоения бюджета проекта), организация приемки MVP проекта Участие в ОПЭ и организация передачи проекта на ТП в ПЭ (в направление разработки на развитие решения), оценка качества реализации проекта, анализ удовлетворенности заказчиков, расчет вознаграждения по проекту Управление: ресурсами, бюджетами, сроками, изменениями, рисками, закупками (поставка оборудования, лицензий, ПО, контроль подрядных организаций внедрения и поддержки) ЗНАНИЯ И НАВЫКИ, НЕОБХОДИМЫЕ ДЛЯ РАБОТЫ Опыт управления ИТ-проектами от 3-х лет Знание бизнес-процессов Розницы Знание различных конфигураций платформы 1С Активная жизненная позиция, общительность, ответственность. Знание основ PMBoK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ищу Project Manager в аккредитованную IT-компанию, которая уже более 6 лет на рынке и занимается разработкой продуктов для автоматизации процессов в сфере крупной промышленности и производства. IT команда - 70 человек, работают по Agile (Scrum), приветствуется рост и развитие, есть возможность посещать конференции, обучения и воркшопы. Основная задача сейчас - сформировать внешний пул подрядчиков для оперативного подключения к задачам и выстроить совместную работу внутренних и внешних команд. Что еще нужно делать: - управлять рисками, качеством, и сроками работ - выстраивать эффективную коммуникацию с командами разработки, вовлекать участников из разных продуктовых команд - Оперативно реагировать на изменения, возникающие в проектах Что хотим видеть в опыте: - успешный опыт управления IT-проектами от 3х лет - многозадачность и дзен в тайм-менеджменте (до 5 проектов в параллели) - Понимание PMBoK или других проектных методологий - умение работать по Agile, а еще приветствуется Agile SAFe Будет плюсом если - уже есть опыт интеграции внешних команд - наличие сертификации PMP, PRINCE2, IPMA Условия: - Удаленный или гибридный формат работы - Оформление по ТК РФ, при желании можно по ГПХ - Оплачиваемые командировки - Корпоративная развозка от ст. м. Московская / парковка на территории БЦ Technopolis - ДМС (включая стоматологию) - Корпоративная мобильная связь, оплачиваемые обеды - Корпоративное обучение Интересно? Откликайтесь, давайте общаться!) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Обязанности:
--преподавание курса «Управление проектами в сфере разработки ПО» в группах в соответствии с разработанным учебным планом и программой обучения;
--коррекция и актуализация учебной программы;
--проверка домашних заданий;
--контроль знаний слушателей;
--предоставление слушателям обратной связи.
-Требования:
--практический опыт управления проектами по разработке ПО не менее 4-х лет (в приоритете в аутсорсинговой или продуктовой компании);
--знание методологий управления проектами, стандартов качества, методик организации работ в проектных командах, хорошие аналитические навыки, принципов SCRUM и Agile;
--активность, ответственность, нацеленность на результат, высокая личная организованность, умение наладить командную работу, хорошие коммуникативные навыки;
--грамотная речь;
--желание преподавать, делиться знаниями и опытом.
-Условия:
--частичная занятость по вечерам (работа по совместительству с основным местом работы);
--занятия проходят очно в городе Минск;
--гибкий график работы, дни занятий согласовываются с кандидатом;
--возможность работать как со сборными, так и с  корпоративными группами;
--работа в вечернее время.
-занятия проходят очно в городе Минск; 
- #</t>
-  </si>
-  <si>
-    <t>Job Title: Licensed Practical Nurse (LPN)
-Location: Huntersville, NC
-Duration: Permanent
-Shift: Shift: 7:00 PM - 7:00 AM;
-Sign-on Bonus: $10,000(paid out in 2 increments; 90 days and 1 year)
-Job Type: Onsite
-Job Duties:
-Performs nursing care and assists with planning and implementing care for the comfort and well being of the patient under the direct supervision of a registered nurse.
-Assists in maintaining a safe working environment, performs all related job responsibilities in a safe manner and maintains clinical and professional competency as appropriate to the ages, developmental stages, and special needs of the patients served.
-Essential Functions Participates in patient assessments by determining nursing care needs based upon collection and interpretation of relevant data.
-Recognizes and determines need for immediate intervention.
-Demonstrates knowledge which enables the following: documentation of patient observations, treatments, patient response to treatment and nursing care utilizing the nursing process, participates actively in treatment and assisting with procedures.
-Assists with development/revision of the plan of care by providing data and identifying potential goals and intervention for review by the RN - . Communicates with the appropriate clinical staff on the status of a patient if a significant change has occurred.
-Implements the identified plan under the supervision of the RN - , ensuring tasks have been completed.
-Aware of patient"s progress and goals as demonstrated by documentation in the medical records.
-Organizes workload and prioritizes responsibilities to ensure quality patient care is delivered in a time efficient manner.
-Attains knowledge and competence that reflects current nursing practice and performs only those nursing skills which they are competent to perform in accordance with legal boundaries and facility policies and procedures.
-Documents assessments, procedures, patient/family education, and the communication of information to appropriate members of the healthcare team in a timely manner.
-Provides and assesses effectiveness of patient and family education under the direction of the registered nurse within the scope of practice as defined by law.
-Physical Requirements Work requires walking, standing, sitting, lifting, reaching, bending, pushing, and pulling.
-Must be able to lift and support the weight of 35 pounds when handling patients, medical equipment and supplies.
-Understands and speaks fluent English. Must have intact sense of sight, hearing, smell, and touch, finger dexterity, critical thinking and ability to concentrate.
-Must be able to respond quickly to changes in the patient and unit conditions.
-Based on the physical requirements for this position all applicants for this position are required to undergo a physical ability test as a condition of employment
-Requirements:
-Current LPN licensure or temporary license as a licensed practical nurse petitioner required.
-Basic Life Support for Healthcare Provider (BLS HCP) from AHA required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In this technology role you are responsible to support in eCommerce area. You need to create project plans, organize resources and help to define scopes for our ongoing and future plans with the team. You are also supporting the product owner and Business Analyst to lead eCommerce area and deliver defined projects in time.
-You bring knowledge and experience from project management to support development projects. You are familiar with the technical implementation of applications such as Magento.
-In addition to the eCommerce IT team, you work with Product Owners, Business Analysts, developers and of course inspiring stakeholders.
-Skills:
-Qualification in project management or equivalent
-Knowledge of both theoretical and practical aspects of project management
-Knowledge of project management techniques and tools
-Direct work experience in project management capacity
-Proven experience in people management
-Proven experience in strategic planning
-Proven experience in software development projects
-Proven knowledge and experience in project management (e.g. IPMA, PMP certificate)Proficient in project management software
-General Skills (non-technical)
-Must be detail oriented, a self-starter and a strong team player
-Excellent verbal and written communication and time management
-Strong analytical and technical skills
-Flexible and adaptable in the face of changing priorities or circumstances
-Ability to make decisions and be accountable for decisions and actions
-Strong attention to detail
-Effective planning and organizations skills
-Copes well under pressure and with uncertainty
-Drives for result and has problem solving ability
-Experience Required:
-A Experience in Scrum and Waterfall Project Management
-Experience in Software Development Projects (5 years +)
-Experience in Project Management (3 years +)
-Please, submit your resumes to the email: ana@aidaprojektai.lt
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We are looking for a Test Manager to support with implementation of Workday project. For this role, we are looking for a professional that is capable to lead, manage, plan and report to ensure on time delivery. The main responsibility would be to step in and manage tasks so that the team can deliver tests.
-We are searching for an experienced manager (at least 1-3 years’ experience) to manage the team in carrying out the delivery of tests. This role is test manager role, with focus on project test managing and leading the process. Please note, that the testing process, tools and the environment are already implemented, so there is no need to create new testing procedures or setup tools. The main responsibility in this role is to ensure that the team deliver tests on time to ensure project to be closed successfully.
-Responsibilities:
-Covering management of test planning, preparation and execution 
-Status reporting to Project Manager 
-Workday knowledge/experience (seen as a plus)
-Skills required:
-Thorough understanding of SaaS based solution test management
-1-3 years’ experience in project/test management
-Experience managing a team in an international environment
-Previous knowledge/experience with solution testing
-Ability to work independently
-Proven track of successful project delivery
-Fluent English language in writing and speaking
-Please, submit your resumes to the email: ana@aidaprojektai.lt
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">О компании: Мы быстрорастущая компания, которая занимается продажей товаров на маркетплейсе Wildberries Мы на постоянной основе ищем интересные новинки и осваиваем новые ниши. В этом году мы планируем кратно расти от месяца к месяцу. Мы работаем на результат и не приветствуем микроменеджмент, поэтому выстраиваем команду, с которой выстроим партнерские и доверительные отношения, на долгосрочный период времени. В связи с этим ищем в команду руководителя направления , который достигнет цели приведет нас к 30млн. Что будет входить в обязанности? Создать план роста выручки в этом году Запускать новые товары Создавать план ведения новых товаров Создание плана продвижения карточки с использованием всех возможных, эффективных инструментов на рынке Реализация плана продвижения. Работа с отзывами, выкупами, SEO (поиск и подбор самых продающих запросов и не только), отслеживание CTR, работа с внутренними РК, работа с внешними рекламными инструментами Регулярный анализ результатов эффективности продвижения товара на маркетплейсах Анализ продаж Контроль ценообразования, вхождение в акции, работа по оптимизации затрат связанных логистикой и стоимостью хранения на МП Плотное взаимодействие со смежными подразделениями для контроля работ связанных с закрепленными карточками Кто нам нужен: Продвинутый пользователь Excel Ты прекрасно понимаешь особенности каждого маркетплейса и знаешь инструменты, которые позволяют масштабировать продажи Опыт работы с большими бюджетами Склонность к постоянному обучению, развитию профессиональных навыков и самосовершенствованию Способность работать в команде, самостоятельность, нацеленность на результат и ответственность за него Портфолио работ и успешных кейсов Ты всегда ищешь, разрабатываешь, тестируешь и предлагаешь новые гипотезы по увеличению продаж на маркетплейсах Что вы получите от работы в нашей компании? Обучение, повышение квалификации, тренинги от нашей компании Адекватное и позитивное руководство Настоящая команда единомышленников График работы 5/2 с 09:00 - 18:00 Высокий уровень дохода: от 120 000 руб. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Описание проекта Меняем бизнес-процессы фиксации и обработки обращений (клиентский сервис b2c). Внедряем новую функциональность Siebel CRM и смежных ИТ-систем. Внедряем новую отчетность в SAP BW для гибкого управления и точного отслеживания KPI. Основные задачи сотрудника на данной позиции Реализация проектов маркетинга (CRM, Клиентский сервис) Отчеты о ходе реализации проекта Административное сопровождение Требования Опыт внедрения или поддержки CRM Опыт работы b2c Опыт в ритейле Отличные организаторские и лидерские качества Системность, структурность, ответственность Отличные коммуникативные и презентационные навыки Будет плюсом, если у Вас есть Специализация маркетинг будет плюсом Условия Официальное оформление в аккредитованную IT-компанию Система ДМС Есть собственный учебный центр с тренингами по языкам программирования, soft skills, карьерному росту и пр. Участие в крупных отраслевых мероприятиях Cпортивные и well-being мероприятия Корпоративные скидки от компаний-заказчиков и многое другое </t>
-  </si>
-  <si>
-    <t xml:space="preserve">В перспективный foodtech стартап со стабильным финансированием приглашается на удаленную fulltime работу Руководитель команды разработки (Менеджер проекта). Мы ищем специалиста, обладающего знаниями и опытом руководства веб и мобильной разработкой высоконагруженных клиент-серверных приложений. Задачи: - Эффективное управление командой из бизнес-аналитика, разработчиков back, front, mobile, QA инженеров, DevOps, дизайнерв - Взаимодействие с внутренним и внешними заказчиками - Деловая переписка - Управление таймингом, бэклогом и roadmap проекта - Ведение документации по проекту - Формирование и ведение бюджета проекта Личностные требования: - Развитое умение аналитически мыслить, системность - Высокие организаторские и тимлидерские способности - Умение работать с большими обьемами информации - Умение руководить командой разработчиков - Умение работать на результат, аргументированно отстаивать свою позицию - Портфолио успешно реализованных проектов Профессиональные требования: - Опыт ведения IT-проектов (разработка сайтов, мобильных приложений) не менее пяти лет - Знание стека и принципов разработки веб и мобильных приложений - Умение работать с требованиями, ставить задачи разработчикам, декомпозировать задачи на подзадачи и оценить их по времени и приоритету - Умение работать с графиками сгорания, таймингами - Знание и умение применять на практике методологии scrum и agile - Отличные коммуникационные навыки - Умение добиваться результата в согласованные сроки - Умение подбирать необходимых специалистов в команду - Опыт работы с jira и trello Мы предлагаем: - удаленка - официальное офомление (IT компания) - корпоративная мобильная связь - ДМС после окончания испытательного срока - годовая премия по результатам работы спасибо за интерес к нашей вакансии и хорошего Вам дня. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Привет! Меня зовут Александра - Специалист по персоналу в федеральной компании. Приглашаю в команду менеджера проекта. Рассматриваем кандидатов, проживающих только в г.Смоленск. Наша Компания работает с федеральными торговыми сетями (розница и складская логистика) на всей территории РФ . Более 12 лет оказываем услуги по оптимизированию всех бизнес-процессов компаний-партнёров, связанных с поиском персонала, расчётами и делопроизводством. Обязанности: Поиск и подбор линейного персонала; Отбор кандидатов посредством job-сайтов и телефонных интервью; Заключение договоров с сотрудниками (онлайн); Ведение отчетности, сверка табеля в автоматизированной системе учета; Взаимодействие с администрацией объектов. Что ждем от Вас: Опыт подбора персонала; Высокий уровень самоорганизации; Рассмотрим также кандидатов с опытом работы: управляющего, супервайзера, торгового представителя, администратора магазина, менеджера объекта. Что предлагаем: Удаленный формат работы ; Заработная плата (оклад + мотивация); График работы 5/2 (на связи в выходные); Испытательный срок 1 месяц; Предусмотрена система наставничества; Свобода действий при решении задач; Официальное трудоустройство через самозанятость. Компания, в связи с ростом и расширением объектов деятельности, ведет поиск Менеджера в один из филиалов. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мы торгуем на маркетплейсах в различных категориях и имеем амбициозные планы по развитию. Мы быстро растем и постоянно расширяем ассортимент товара, поэтому нам в команду нужен менеджер по рекламе и продвижению на Wildberries. Ссылка на магазин: https://www.wildberries.ru/seller/1161204 Продуктом должности будет выведенный в ТОП товар. Основными задачами будут: 1. Работа над эффективностью карточек для попадания в ТОП-8; 2. Организация улучшения упаковки, организация фотосессий, взаимодействие с подрядчиками; 3. Постоянно развивать и корректировать продукт после анализа продаж, получения обратной связи от рынка и от клиентов; 4. Формирование стратегии продвижения товаров магазина и её реализация; 5. Генерить гипотезы и запускать эксперименты для их проверки; 6. Определение ценообразования, участие в акциях; 7. Составление таблиц отчетности и мониторинга; 8. Проведение анализа конкурентов и рынка; 9. Всегда быть в курсе актуальных позиций, состояния и ситуации рынка. Ты нам нужен, если у тебя есть: Опыт управления продуктом, анализ рынка и спроса, тестирование гипотез, понимание экономики продукта; Навыки владения google-таблицами; Целеустремленность, креативность, работоспособность, проактивность; Личные компетенции: коммуникабельность, аналитический склад ума, стратегическое мышление, владение тайм-менеджментом и самостоятельность. Мы ищем автономного сотрудника, умеющего брать ответственность за свои показатели З/п: 40.000 руб оклад + KPI Удаленный формат на full-занятости с 10:00 до 19:00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">В продуктовую компанию ищем руководителя проекта с опытом реализации ML продуктов. Продукт - децентрализованная платформа для обработки больших данных (Big Data), применяется в большинстве крупных российских ритейлеров. Задачи: Управление новыми проектами и развитие текущих Разработка, согласование и контроль объема работ и планов реализации Участие в разработке и согласовании проектной документации: бизнес-требования, технические задания, архитектура. Готовность самостоятельно дорабатывать и согласовывать документы, по крайней мере, бизнес-требования. Управление группой внедрения: системные аналитики и инженеры внедрения Развитие отношений с клиентами: новые требования, управление бэклогом работ, приоритезация требований к продукту и пр. Наши ожидания от кандидата: Опыт управления проектами внедрения аналитических решений от 3 лет. Опыт разработки, контроля качества и согласования всей проектной документации уровня корпораций (стандарты BR, HLD) Желателен опыт управления несколькими проектами одновременно Опыт развития отношений с клиентами: управление ожиданиями, допродажи Базовые знания СУБД, ML, DWH/BI, стек BigData Опыт руководства проектными командами (Agile/Waterfall) Английский на уровне технической документации Условия: - Возможность поработать со сложным проектом с большими данными (Big Data) - Удаленная работа из любой точки мира - Оформление ИП/ГПХ (оплата рубли или крипта) - Полный рабочий день, 5/2 - Работа в профессиональном и атмосферном коллективе - Работа в технологичной и быстро развивающейся ИТ-компании </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Привет! Мы команда арбитражников, льем трафик на беттинг (белый). Ищем в команду сильного проджекта, который закроет на себе отдельный канал мобильные приложения. Нужно выстроить "конвеер" по созданию простых мобильных приложений. Ключевая задача: Быстро находить нужных подрядчиков и сделать так, чтобы работа была выполнена в срок. Первое время нужно будет находить программистов, для разработки простых приложений. Чем больше программистов вы найдете и разработаете их руками приложения, тем выше будет ваш доход . Требования: Вы управляли удаленной командой от 7 человек Вы знаете как быстро нанять подрядчика: копирайтеры, программисты, спецы по трафику и т.д. У вас не вызывает отрицательных эмоций или сомнения слова и ниша: ставки на спорт, беттинг, арбитраж трафика и т.д Преимуществом будет если: Вы нанимали и управляли программистами Вы ориентируетесь в беттинг Условия: Нет бюрократии и тухлых планерок. Нам важен результат, а не кол-во потраченных часов. Нет печенек в офисе. И офиса нет. Удалёнка. Фикс: 60 000 Р Бонус за результат: от 30 000 до 80 000 Р </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Служба создана во исполнение обязательств по договору на выполнение работ в отношении приборов учета электрической энергии, установленных в многоквартирных домах Ленинградской области. Что и сколько нужно делать по договору в отношении приборов учета : 1. Снимать контрольные показания 2 раза в год, приборы учета установлены в квартирах либо на лестничных площадках; общее количество приборов - порядка 200 тыс. штук; такие работы выполняют контролеры 2. Ограничивать и возобновлять подачу электроэнергии; порядка 700 шт. в месяц; такие работы делают электрики 3. Выполнять проверки, допуск в эксплуатацию приборов учета; порядка 100 шт. в месяц; это тоже электрики 4. Выполнять обследования энергопринимающих устройств потребителей в целях определения наличия (отсутствия) технической возможности установки приборов учета; и снова электрики Что делает Руководитель Службы: Планирует: Руководствуясь Требованиями Заказчика (гарантирующего поставщика электрической энергии) к объемам и срокам, и Планом проекта по доходам, расходам, и требованиями Организации к доходности Проекта Составляет планы/графики выполнения работ Составляет планы/графики привлечения персонала, закупок ресурсов 2. Организовывает, выполняет самостоятельно: 2.1. Организовывает работу исполнителей (контролеров, электриков), в том числе: Составляет маршруты Разрабатывает нормативы, выдает задания Принимает работы (результаты, отчеты) Передает результаты Заказчику 2.2. Заказывает ресурсы (материалы, оборудование, типографские услуги и т.п.) 2.3. Решает кадровые вопросы (специалист(ы) Службы, контролеры, электрики), в том числе: осуществляет подбор, организовывает инструктаж/обучение, консультирует сотрудников Службы 2.4. Готовит отчеты по формам Заказчика и по формам Организации 2.5. Решает оперативные вопросы с районными отделениями и с генеральным офисом Заказчика 3. Контролирует соблюдение регламентов, технологических процессов, перечисленных в договоре с Заказчиком. Ключевые требования: Опыт управления коллективом от 4-х человек Владение Excel (вы работате с большими объемами данных, применяете VLOOKUP, SUMPRODUCT, SUBTOTAL, IF, SUMIF, способны написать формулу с двумя-тремя уровнями вложенности скобок, применяете в работе условное форматирование, списки, группировки, сводные таблицы и диаграммы, настраиваете графики для получения наилучшего визуального эффекта) Коммуникативные навыки Работа связана со строгими сроками и/или проблемы могут возникнуть неожиданно - мы должны быть уверены, что вы быстро отреагируете и решите любые проблемы, связанные с работой. Работа связана с реулярным взаимодействием с людьми - мы должны быть уверены, что вы умеете слушать, договариваться, проявлять эмпатию, уверенность У вас есть тяга к изобретательности и совершенствованию процессов Условия работы: Срочный трудовой договор по 31.01.2024; договор может стать бессрочным, поскольку от действий руководителя Службы зависит желание Заказчика продолжить работу по договору Удаленная работа, один раз (не менее одного раза) в неделю встречаемся в офисе на Взлетной улице д. 7, обычно это происходит по понедельникам Гибкий график Возможен карьерный рост Премирование (% от коммерческих успехов проекта) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вакансия компании: Продвижение Мы компания ,которая более 10 лет создает все для спорта, заряжая на победу и ежедневные достижения Мы решили развивать направление маркетплейсов. Поэтому ищем в нашу дружную команду человека,которому будет интересно расти и развиваться в этом направлении Формат: удаленная работа. Для успешных сотрудников возможны командировки в Турцию за наш счет( так как там находится наше производство) Вам предстоит: - работа с карточками товара: заведение новых карточек, создание описания, работа с характеристиками, цветами,размерами и т.п.; - подготовка Тз для дизайнера и фотографа - анализ товаров конкурентов, мониторинг их цен, предложений; - подготовка отчетов (ежедневно и еженедельно); - контроль остатков, оборачиваемости товара; - формирование поставок Fbo; - работа с отзывами покупателей; - в дальнейшем адаптация и обучение новых сотрудников( к этому моменту планируем вас повысить до руководителя направления и увеличить зп в 2 раза) Рады видеть вас в кандидатах, если вы: - хотите разобраться во всех нюансах работы на маркетплейсах; - внимательны и ответственны - имеете опыт работы в продажах,рекламе, снабжении или оптовых закупках. Ну или просто большое желание разобраться в новом направлении - если сами увлекаетесь спортом,то будет вашим преимуществом Вы получите: - работу в крупной стабильной компании; - возможность проходить обучение в различных направлениях и повышать свой личностный и профессиональный уровень; - работу в команде профессионалов; - график работы 5/2 со свободным графиком - возможность быстрого карьерного роста Если Вам понравилась данная вакансия, то оставьте отклик прямо сейчас! Тип занятости: частичная Требуется менеджер интернет-проектов/оператор пк на удаленную работу Оператор пк, оператор, руководитель проекта, оператор в отдел сервисного обслуживания, оператор справочной службы, руководитель, менеджер проекта, менеджер it-проекта, project manager, оператор на телефоне, оператор контрольно-справочного участка, менеджер интернет-проекта, оператор базы данных, оператор на дому </t>
+    <t>Менеджер по продукту (услуги)</t>
+  </si>
+  <si>
+    <t>Technical Project Manager / Technical Product Owner</t>
+  </si>
+  <si>
+    <t>Internal Project Manager/Director</t>
+  </si>
+  <si>
+    <t>Руководитель проекта (строительство)</t>
+  </si>
+  <si>
+    <t>Project manager</t>
+  </si>
+  <si>
+    <t>Менеджер проекта</t>
+  </si>
+  <si>
+    <t>Менеджер (управление строительством)</t>
+  </si>
+  <si>
+    <t>Project Manager (Gamedev)</t>
+  </si>
+  <si>
+    <t>Менеджер проекта парки аттракционов</t>
+  </si>
+  <si>
+    <t>Менеджер по продукту (УЗИ оборудование)</t>
+  </si>
+  <si>
+    <t>Менеджер IT проектов (project manager)</t>
+  </si>
+  <si>
+    <t>Product Owner (Веб-сайт)</t>
+  </si>
+  <si>
+    <t>Product-Manager</t>
+  </si>
+  <si>
+    <t>Project manager (Senior)</t>
+  </si>
+  <si>
+    <t>Руководитель проектной группы/Руководитель портфеля проектов</t>
+  </si>
+  <si>
+    <t>Project Manager/Product Owner</t>
+  </si>
+  <si>
+    <t>Product Manager в E-commerce</t>
+  </si>
+  <si>
+    <t>Руководитель проекта/Производитель работ/Прораб(Объекты культурного наследия), Удаленная работа</t>
+  </si>
+  <si>
+    <t>Руководитель направления Mock интервью</t>
+  </si>
+  <si>
+    <t>Middle Product Manager / Менеджер продукта</t>
+  </si>
+  <si>
+    <t>Руководитель направления/ менеджер проекта</t>
+  </si>
+  <si>
+    <t>Junior Product Manager (Intern)</t>
+  </si>
+  <si>
+    <t>Project Manager (Integrations)</t>
+  </si>
+  <si>
+    <t>Руководитель проекта (база отдыха "Соколинское" Выборгский район Ленинградской области)</t>
+  </si>
+  <si>
+    <t>Руководитель проекта системы обучения (Digital)</t>
+  </si>
+  <si>
+    <t>Junior project manager EVENT</t>
+  </si>
+  <si>
+    <t>Project Manager в компанию по созданию нейронных сетей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portuguese / English Medical Interpreter </t>
+  </si>
+  <si>
+    <t>CX Consult / digital product development</t>
+  </si>
+  <si>
+    <t>Специалист по сопровождению проектов</t>
+  </si>
+  <si>
+    <t>Руководитель / Управляющий проекта / Менеджер проекта</t>
+  </si>
+  <si>
+    <t>Senior Project Manager (Crypto &amp; Blockchain)</t>
+  </si>
+  <si>
+    <t>Senior project manager</t>
+  </si>
+  <si>
+    <t>Менеджер по продукту</t>
+  </si>
+  <si>
+    <t>Product Manager (онлайн сервис бронирования отелей)</t>
+  </si>
+  <si>
+    <t>Project manager (hotels)</t>
+  </si>
+  <si>
+    <t>Менеджер по продукту (Гидравлика)</t>
+  </si>
+  <si>
+    <t>Project Manager (Marketing Integrations)</t>
+  </si>
+  <si>
+    <t>Project manager в аутсорсинговую IT компанию</t>
+  </si>
+  <si>
+    <t>Senior Product Manager (retention)</t>
+  </si>
+  <si>
+    <t>Менеджер по продукту UI/UX</t>
+  </si>
+  <si>
+    <t>Quality Project Manager</t>
+  </si>
+  <si>
+    <t>Руководитель проекта (промышленное предприятие)</t>
+  </si>
+  <si>
+    <t>Руководитель ИТ-проектов</t>
+  </si>
+  <si>
+    <t>Менеджер проекта (бюджетирование, управленческий учет, контроллинг)</t>
+  </si>
+  <si>
+    <t>Event Manager</t>
+  </si>
+  <si>
+    <t>SMM-стратег / Руководитель проектов</t>
+  </si>
+  <si>
+    <t>Руководитель проекта СММ</t>
+  </si>
+  <si>
+    <t>Руководитель проекта по рекрутменту</t>
+  </si>
+  <si>
+    <t>Специалист по работе с клиентами (удаленно)</t>
+  </si>
+  <si>
+    <t>Project manager / Руководителя направления по маркетплейсам</t>
+  </si>
+  <si>
+    <t>Руководитель направления продаж «Антивандальные ограждения и строительство»</t>
+  </si>
+  <si>
+    <t>Junior Project Manager</t>
+  </si>
+  <si>
+    <t>Product Manager в направление "Жизнь в городе"</t>
+  </si>
+  <si>
+    <t>Construction Project Coordinator</t>
+  </si>
+  <si>
+    <t>Project manager (Финтех продукт)</t>
+  </si>
+  <si>
+    <t>Руководитель направления по управлению безопасностью подрядных организаций</t>
+  </si>
+  <si>
+    <t>Руководитель проектов (LIMS)</t>
+  </si>
+  <si>
+    <t>Проджект менеджер digital IT проектов</t>
+  </si>
+  <si>
+    <t>Руководитель проектной группы</t>
+  </si>
+  <si>
+    <t>Руководитель проекта (Big data)</t>
+  </si>
+  <si>
+    <t>Project Coordinator / Clinical Trial Assistant</t>
+  </si>
+  <si>
+    <t>Региональный менеджер проекта аутсорсинга (Ритейл)</t>
+  </si>
+  <si>
+    <t>Project manager (бронирование отелей)</t>
+  </si>
+  <si>
+    <t>Lead Product Manager</t>
+  </si>
+  <si>
+    <t>IT Project manager - B2C website and app</t>
+  </si>
+  <si>
+    <t>Transition Manager / Project Manager - File Share Migration to Cloud</t>
+  </si>
+  <si>
+    <t>Руководитель проектного офиса</t>
+  </si>
+  <si>
+    <t>Руководитель проекта по товароучету с функциями КРО</t>
+  </si>
+  <si>
+    <t>Middle Project manager</t>
+  </si>
+  <si>
+    <t>Project Manager в финансовую компанию Umnozhenie</t>
+  </si>
+  <si>
+    <t>Руководитель IT проекта / Senior IT project manager</t>
+  </si>
+  <si>
+    <t>Руководитель проекта департамента технического заказчика</t>
+  </si>
+  <si>
+    <t>Проектный менеджер</t>
+  </si>
+  <si>
+    <t>Product Manager (стажер)</t>
+  </si>
+  <si>
+    <t>IT Project manager (аналитика)</t>
+  </si>
+  <si>
+    <t>Заместитель руководителя проекта</t>
+  </si>
+  <si>
+    <t>Digital Project Manager</t>
+  </si>
+  <si>
+    <t>Senior Product Manager</t>
+  </si>
+  <si>
+    <t>Project manager / Менеджер проекта (удаленно)</t>
+  </si>
+  <si>
+    <t>Project Manager со скилами бизнес-анализа и системного-анализа</t>
+  </si>
+  <si>
+    <t>Руководитель проектов по управленческому учету</t>
+  </si>
+  <si>
+    <t>Product owner (семейный банк)</t>
+  </si>
+  <si>
+    <t>Senior Product Manager (Mobile Apps)</t>
+  </si>
+  <si>
+    <t>Руководитель направления по развитию и продвижению портфеля проектов</t>
+  </si>
+  <si>
+    <t>Product/Project manager (IOS)</t>
+  </si>
+  <si>
+    <t>Менеджер по продукту (Игры/игрушки)</t>
+  </si>
+  <si>
+    <t>Product Manager Equipment Central Asia</t>
+  </si>
+  <si>
+    <t>Руководитель проектов (Туапсе)</t>
+  </si>
+  <si>
+    <t>Руководитель направления внутреннего контроля</t>
+  </si>
+  <si>
+    <t>Руководитель проекта по логистике</t>
+  </si>
+  <si>
+    <t>Product Owner</t>
+  </si>
+  <si>
+    <t>Senior Product Manager (SaaS)</t>
+  </si>
+  <si>
+    <t>Project Manager (to Serbia / Cyprus)</t>
+  </si>
+  <si>
+    <t>Senior Project Assistant</t>
+  </si>
+  <si>
+    <t>Marketing Project Manager / Менеджер образовательных проектов в команде маркетинга</t>
+  </si>
+  <si>
+    <t>Junior project manager</t>
+  </si>
+  <si>
+    <t>Product Owner / Chief petty officer / Head of product</t>
+  </si>
+  <si>
+    <t>Руководитель направления по созданию единого детского профиля (детский Сбер ID)</t>
+  </si>
+  <si>
+    <t>Product Manager Gamedev</t>
+  </si>
+  <si>
+    <t>Intern Project manager / Стажер проджект менеджер</t>
+  </si>
+  <si>
+    <t>Project Manager с функциями Product Manager</t>
+  </si>
+  <si>
+    <t>Product Owner Social Casino (white label mobile app)</t>
+  </si>
+  <si>
+    <t>Product Lead Мед/Тех</t>
+  </si>
+  <si>
+    <t>Project менеджер</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81178472</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81251559</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/79127785</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/647491e45727e1b37d09f4ec</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/647471757c16fee8ea077459</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6474687c0f7f950e960535a4</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81216286</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81255692</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81267016</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81263894</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81224127</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81254960</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81261682</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/80095439</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81219367</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81242641</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81263714</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81235153</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81223899</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81219910</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81218755</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81256296</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81216531</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81240409</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81216716</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81199361</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/78975152</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81242965</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81252624</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81263034</t>
+  </si>
+  <si>
+    <t>https://hh.kz/vacancy/80910748</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81260943</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81205673</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81253567</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81214225</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81227464</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81239980</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6474a70861bf8fada00227e3</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81262846</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81234751</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81236122</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81264134</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81245449</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81222662</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81257794</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81220976</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81252499</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81214164</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81232968</t>
+  </si>
+  <si>
+    <t>https://hh.kz/vacancy/80614218</t>
+  </si>
+  <si>
+    <t>https://hh.kz/vacancy/80916465</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81254126</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81231851</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/64746417780e1d5e9b051639</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6474590171b08d643f03ad02</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81256620</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81237333</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81240341</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81227550</t>
+  </si>
+  <si>
+    <t>https://finder.vc/vacancies/24128</t>
+  </si>
+  <si>
+    <t>https://remotehub.com/jobs/details/portuguese-english-medical-interpreter-647515c4edae3a6a8c66db5b</t>
+  </si>
+  <si>
+    <t>https://remotehub.com/jobs/details/cx-consult-digital-product-development-647459d9edae3a2b106321ca</t>
+  </si>
+  <si>
+    <t>https://remotehub.com/jobs/details/project-manager-6474544dedae3a1ba74d5442</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81293889</t>
+  </si>
+  <si>
+    <t>https://hh.kz/vacancy/80937712</t>
+  </si>
+  <si>
+    <t>https://hh.kz/vacancy/81311175</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81310457</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81288825</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81295100</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81289175</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81319353</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81324111</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81322951</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81141793</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81325971</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81289234</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81289958</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81277259</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81299934</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81293882</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81274097</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81280816</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/80615120</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81278584</t>
+  </si>
+  <si>
+    <t>https://hh.kz/vacancy/81285765</t>
+  </si>
+  <si>
+    <t>https://hh.kz/vacancy/81285466</t>
+  </si>
+  <si>
+    <t>https://hh.kz/vacancy/81278701</t>
+  </si>
+  <si>
+    <t>https://hh.kz/vacancy/81315791</t>
+  </si>
+  <si>
+    <t>https://hh.kz/vacancy/81324990</t>
+  </si>
+  <si>
+    <t>https://hh.kz/vacancy/81295789</t>
+  </si>
+  <si>
+    <t>https://hh.kz/vacancy/81298774</t>
+  </si>
+  <si>
+    <t>https://hh.kz/vacancy/81325971</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81327064</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81309713</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81328556</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81311264</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81294916</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81313988</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81290812</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81322141</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81316623</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81326066</t>
+  </si>
+  <si>
+    <t>https://hh.kz/vacancy/81327748</t>
+  </si>
+  <si>
+    <t>https://hh.kz/vacancy/81299934</t>
+  </si>
+  <si>
+    <t>https://hh.kz/vacancy/81325168</t>
+  </si>
+  <si>
+    <t>https://hh.kz/vacancy/81286146</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6475ebe83d4a3cc4670b06c7</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81309473</t>
+  </si>
+  <si>
+    <t>https://hh.kz/vacancy/81331106</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81322950</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/64760667e844a0ffb9068495</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6475ef79efeec152120f511e</t>
+  </si>
+  <si>
+    <t>http://www.vseti.app/vakansii/project-managerfjkd4930ds</t>
+  </si>
+  <si>
+    <t>http://www.vseti.app/vakansii/project-managerfjj4903dkksf</t>
+  </si>
+  <si>
+    <t>https://jobs.devby.io/vacancies/26880</t>
+  </si>
+  <si>
+    <t>https://remotehub.com/jobs/details/transition-manager-project-manager-file-share-6475cdfdedae3a1da62f9a68</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81374455</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81368667</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81341181</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81339819</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81378290</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81363798</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81380643</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81369287</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81346130</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81367013</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81376127</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81359901</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81367166</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81343839</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81371552</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81381054</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81364607</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81360993</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81374784</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81373043</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81365350</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81341863</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81379420</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81381034</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81379002</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81354916</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81368258</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81362521</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81363440</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81352775</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81334844</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81362097</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81343739</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81358251</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81360012</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81381766</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81343747</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81354190</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81335195</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81378229</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81402357</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81415400</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81399431</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/80008773</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81410534</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/79991184</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81419617</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81390714</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81390695</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/79832295</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81387869</t>
+  </si>
+  <si>
+    <t>https://spb.hh.ru/vacancy/81409513</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,6 +1442,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -667,16 +1483,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -969,7 +1791,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1012,10 +1834,10 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>58</v>
+        <v>177</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -1041,10 +1863,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s">
-        <v>59</v>
+        <v>178</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -1070,10 +1892,10 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>60</v>
+        <v>179</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
@@ -1099,10 +1921,10 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>61</v>
+        <v>180</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -1128,10 +1950,10 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>62</v>
+        <v>181</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -1157,10 +1979,10 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>63</v>
+        <v>182</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -1186,10 +2008,10 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" t="s">
-        <v>64</v>
+        <v>183</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1215,10 +2037,10 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>65</v>
+        <v>181</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -1244,10 +2066,10 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s">
-        <v>66</v>
+        <v>184</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
@@ -1273,10 +2095,10 @@
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>67</v>
+        <v>185</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
@@ -1302,10 +2124,10 @@
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" t="s">
-        <v>68</v>
+        <v>181</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
@@ -1331,10 +2153,10 @@
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" t="s">
-        <v>69</v>
+        <v>186</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
@@ -1360,10 +2182,10 @@
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" t="s">
-        <v>70</v>
+        <v>187</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -1389,10 +2211,10 @@
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" t="s">
-        <v>71</v>
+        <v>188</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -1418,10 +2240,10 @@
         <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" t="s">
-        <v>72</v>
+        <v>189</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="F16" t="s">
         <v>8</v>
@@ -1447,10 +2269,10 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" t="s">
-        <v>73</v>
+        <v>190</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="F17" t="s">
         <v>8</v>
@@ -1476,10 +2298,10 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" t="s">
-        <v>74</v>
+        <v>191</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="F18" t="s">
         <v>8</v>
@@ -1505,10 +2327,10 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" t="s">
-        <v>75</v>
+        <v>192</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
@@ -1534,10 +2356,10 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" t="s">
-        <v>76</v>
+        <v>183</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
@@ -1563,10 +2385,10 @@
         <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" t="s">
-        <v>77</v>
+        <v>193</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
@@ -1592,10 +2414,10 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" t="s">
-        <v>78</v>
+        <v>194</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="F22" t="s">
         <v>8</v>
@@ -1621,10 +2443,10 @@
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" t="s">
-        <v>79</v>
+        <v>189</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
@@ -1650,10 +2472,10 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" t="s">
-        <v>80</v>
+        <v>192</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F24" t="s">
         <v>8</v>
@@ -1679,10 +2501,10 @@
         <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" t="s">
-        <v>81</v>
+        <v>189</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F25" t="s">
         <v>8</v>
@@ -1708,25 +2530,4342 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
+        <v>192</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>195</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>196</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>197</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" t="s">
+        <v>198</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" t="s">
+        <v>199</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" t="s">
+        <v>200</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" t="s">
+        <v>201</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" t="s">
+        <v>181</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" t="s">
+        <v>200</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" t="s">
+        <v>202</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" t="s">
+        <v>181</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F37" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" t="s">
+        <v>203</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" t="s">
+        <v>204</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" t="s">
+        <v>205</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" t="s">
+        <v>201</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F41" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" t="s">
+        <v>191</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F42" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" t="s">
+        <v>206</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" t="s">
+        <v>207</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="F44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" t="s">
+        <v>208</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F45" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" t="s">
+        <v>195</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" t="s">
+        <v>209</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" t="s">
+        <v>210</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" t="s">
+        <v>211</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
         <v>57</v>
       </c>
-      <c r="E26" t="s">
+      <c r="D50" t="s">
+        <v>212</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F50" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" t="s">
+        <v>213</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F51" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" t="s">
+        <v>214</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" t="s">
+        <v>215</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" t="s">
+        <v>181</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F54" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55" t="s">
+        <v>216</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F55" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" t="s">
+        <v>217</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F56" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" t="s">
+        <v>218</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F57" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" t="s">
+        <v>219</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F58" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D59" t="s">
+        <v>220</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="F59" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" t="s">
+        <v>221</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F60" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>222</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F61" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" t="s">
+        <v>8</v>
+      </c>
+      <c r="H61" t="s">
+        <v>8</v>
+      </c>
+      <c r="I61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62" t="s">
+        <v>223</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F62" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63" t="s">
+        <v>224</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" t="s">
+        <v>8</v>
+      </c>
+      <c r="H63" t="s">
+        <v>8</v>
+      </c>
+      <c r="I63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>71</v>
+      </c>
+      <c r="D64" t="s">
+        <v>195</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F64" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" t="s">
+        <v>8</v>
+      </c>
+      <c r="H64" t="s">
+        <v>8</v>
+      </c>
+      <c r="I64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65" t="s">
+        <v>225</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F65" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" t="s">
+        <v>8</v>
+      </c>
+      <c r="H65" t="s">
+        <v>8</v>
+      </c>
+      <c r="I65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>73</v>
+      </c>
+      <c r="D66" t="s">
+        <v>226</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F66" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>74</v>
+      </c>
+      <c r="D67" t="s">
+        <v>227</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F67" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" t="s">
+        <v>8</v>
+      </c>
+      <c r="H67" t="s">
+        <v>8</v>
+      </c>
+      <c r="I67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s">
+        <v>75</v>
+      </c>
+      <c r="D68" t="s">
+        <v>192</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F68" t="s">
+        <v>8</v>
+      </c>
+      <c r="G68" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68" t="s">
+        <v>8</v>
+      </c>
+      <c r="I68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>76</v>
+      </c>
+      <c r="D69" t="s">
+        <v>201</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F69" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" t="s">
+        <v>8</v>
+      </c>
+      <c r="I69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>77</v>
+      </c>
+      <c r="D70" t="s">
+        <v>228</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F70" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" t="s">
+        <v>8</v>
+      </c>
+      <c r="H70" t="s">
+        <v>8</v>
+      </c>
+      <c r="I70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71" t="s">
+        <v>229</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F71" t="s">
+        <v>8</v>
+      </c>
+      <c r="G71" t="s">
+        <v>8</v>
+      </c>
+      <c r="H71" t="s">
+        <v>8</v>
+      </c>
+      <c r="I71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>79</v>
+      </c>
+      <c r="D72" t="s">
+        <v>230</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F72" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
+        <v>80</v>
+      </c>
+      <c r="D73" t="s">
+        <v>189</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F73" t="s">
+        <v>8</v>
+      </c>
+      <c r="G73" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" t="s">
+        <v>8</v>
+      </c>
+      <c r="I73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
+        <v>81</v>
+      </c>
+      <c r="D74" t="s">
+        <v>231</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F74" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" t="s">
+        <v>8</v>
+      </c>
+      <c r="H74" t="s">
+        <v>8</v>
+      </c>
+      <c r="I74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
         <v>82</v>
       </c>
-      <c r="F26" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" t="s">
-        <v>8</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="D75" t="s">
+        <v>232</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F75" t="s">
+        <v>8</v>
+      </c>
+      <c r="G75" t="s">
+        <v>8</v>
+      </c>
+      <c r="H75" t="s">
+        <v>8</v>
+      </c>
+      <c r="I75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
+        <v>83</v>
+      </c>
+      <c r="D76" t="s">
+        <v>233</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F76" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77" t="s">
+        <v>234</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F77" t="s">
+        <v>8</v>
+      </c>
+      <c r="G77" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" t="s">
+        <v>8</v>
+      </c>
+      <c r="I77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>85</v>
+      </c>
+      <c r="D78" t="s">
+        <v>229</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F78" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78" t="s">
+        <v>8</v>
+      </c>
+      <c r="H78" t="s">
+        <v>8</v>
+      </c>
+      <c r="I78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>86</v>
+      </c>
+      <c r="D79" t="s">
+        <v>235</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F79" t="s">
+        <v>8</v>
+      </c>
+      <c r="G79" t="s">
+        <v>8</v>
+      </c>
+      <c r="H79" t="s">
+        <v>8</v>
+      </c>
+      <c r="I79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>87</v>
+      </c>
+      <c r="D80" t="s">
+        <v>236</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F80" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" t="s">
+        <v>8</v>
+      </c>
+      <c r="H80" t="s">
+        <v>8</v>
+      </c>
+      <c r="I80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>88</v>
+      </c>
+      <c r="D81" t="s">
+        <v>237</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F81" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" t="s">
+        <v>8</v>
+      </c>
+      <c r="H81" t="s">
+        <v>8</v>
+      </c>
+      <c r="I81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>89</v>
+      </c>
+      <c r="D82" t="s">
+        <v>238</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F82" t="s">
+        <v>8</v>
+      </c>
+      <c r="G82" t="s">
+        <v>8</v>
+      </c>
+      <c r="H82" t="s">
+        <v>8</v>
+      </c>
+      <c r="I82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
+        <v>90</v>
+      </c>
+      <c r="D83" t="s">
+        <v>189</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F83" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>91</v>
+      </c>
+      <c r="D84" t="s">
+        <v>239</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F84" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84" t="s">
+        <v>8</v>
+      </c>
+      <c r="H84" t="s">
+        <v>8</v>
+      </c>
+      <c r="I84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>92</v>
+      </c>
+      <c r="D85" t="s">
+        <v>240</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F85" t="s">
+        <v>8</v>
+      </c>
+      <c r="G85" t="s">
+        <v>8</v>
+      </c>
+      <c r="H85" t="s">
+        <v>8</v>
+      </c>
+      <c r="I85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" t="s">
+        <v>93</v>
+      </c>
+      <c r="D86" t="s">
+        <v>241</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F86" t="s">
+        <v>8</v>
+      </c>
+      <c r="G86" t="s">
+        <v>8</v>
+      </c>
+      <c r="H86" t="s">
+        <v>8</v>
+      </c>
+      <c r="I86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" t="s">
+        <v>94</v>
+      </c>
+      <c r="D87" t="s">
+        <v>242</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F87" t="s">
+        <v>8</v>
+      </c>
+      <c r="G87" t="s">
+        <v>8</v>
+      </c>
+      <c r="H87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>95</v>
+      </c>
+      <c r="D88" t="s">
+        <v>243</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G88" t="s">
+        <v>8</v>
+      </c>
+      <c r="H88" t="s">
+        <v>8</v>
+      </c>
+      <c r="I88" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" t="s">
+        <v>96</v>
+      </c>
+      <c r="D89" t="s">
+        <v>244</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F89" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" t="s">
+        <v>245</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F90" t="s">
+        <v>8</v>
+      </c>
+      <c r="G90" t="s">
+        <v>8</v>
+      </c>
+      <c r="H90" t="s">
+        <v>8</v>
+      </c>
+      <c r="I90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" t="s">
+        <v>98</v>
+      </c>
+      <c r="D91" t="s">
+        <v>246</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="F91" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" t="s">
+        <v>99</v>
+      </c>
+      <c r="D92" t="s">
+        <v>247</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="F92" t="s">
+        <v>8</v>
+      </c>
+      <c r="G92" t="s">
+        <v>8</v>
+      </c>
+      <c r="H92" t="s">
+        <v>8</v>
+      </c>
+      <c r="I92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" t="s">
+        <v>100</v>
+      </c>
+      <c r="D93" t="s">
+        <v>233</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="F93" t="s">
+        <v>8</v>
+      </c>
+      <c r="G93" t="s">
+        <v>8</v>
+      </c>
+      <c r="H93" t="s">
+        <v>8</v>
+      </c>
+      <c r="I93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" t="s">
+        <v>101</v>
+      </c>
+      <c r="D94" t="s">
+        <v>248</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F94" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" t="s">
+        <v>102</v>
+      </c>
+      <c r="D95" t="s">
+        <v>249</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="F95" t="s">
+        <v>8</v>
+      </c>
+      <c r="G95" t="s">
+        <v>8</v>
+      </c>
+      <c r="H95" t="s">
+        <v>8</v>
+      </c>
+      <c r="I95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" t="s">
+        <v>103</v>
+      </c>
+      <c r="D96" t="s">
+        <v>250</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F96" t="s">
+        <v>8</v>
+      </c>
+      <c r="G96" t="s">
+        <v>8</v>
+      </c>
+      <c r="H96" t="s">
+        <v>8</v>
+      </c>
+      <c r="I96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" t="s">
+        <v>104</v>
+      </c>
+      <c r="D97" t="s">
+        <v>195</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F97" t="s">
+        <v>8</v>
+      </c>
+      <c r="G97" t="s">
+        <v>8</v>
+      </c>
+      <c r="H97" t="s">
+        <v>8</v>
+      </c>
+      <c r="I97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s">
+        <v>105</v>
+      </c>
+      <c r="D98" t="s">
+        <v>201</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F98" t="s">
+        <v>8</v>
+      </c>
+      <c r="G98" t="s">
+        <v>8</v>
+      </c>
+      <c r="H98" t="s">
+        <v>8</v>
+      </c>
+      <c r="I98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>106</v>
+      </c>
+      <c r="D99" t="s">
+        <v>251</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="F99" t="s">
+        <v>8</v>
+      </c>
+      <c r="G99" t="s">
+        <v>8</v>
+      </c>
+      <c r="H99" t="s">
+        <v>8</v>
+      </c>
+      <c r="I99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>107</v>
+      </c>
+      <c r="D100" t="s">
+        <v>252</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F100" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>108</v>
+      </c>
+      <c r="D101" t="s">
+        <v>195</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="F101" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>109</v>
+      </c>
+      <c r="D102" t="s">
+        <v>192</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F102" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" t="s">
+        <v>8</v>
+      </c>
+      <c r="I102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>110</v>
+      </c>
+      <c r="D103" t="s">
+        <v>253</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F103" t="s">
+        <v>8</v>
+      </c>
+      <c r="G103" t="s">
+        <v>8</v>
+      </c>
+      <c r="H103" t="s">
+        <v>8</v>
+      </c>
+      <c r="I103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>111</v>
+      </c>
+      <c r="D104" t="s">
+        <v>254</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F104" t="s">
+        <v>8</v>
+      </c>
+      <c r="G104" t="s">
+        <v>8</v>
+      </c>
+      <c r="H104" t="s">
+        <v>8</v>
+      </c>
+      <c r="I104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>112</v>
+      </c>
+      <c r="D105" t="s">
+        <v>236</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F105" t="s">
+        <v>8</v>
+      </c>
+      <c r="G105" t="s">
+        <v>8</v>
+      </c>
+      <c r="H105" t="s">
+        <v>8</v>
+      </c>
+      <c r="I105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>113</v>
+      </c>
+      <c r="D106" t="s">
+        <v>255</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F106" t="s">
+        <v>8</v>
+      </c>
+      <c r="G106" t="s">
+        <v>8</v>
+      </c>
+      <c r="H106" t="s">
+        <v>8</v>
+      </c>
+      <c r="I106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" t="s">
+        <v>114</v>
+      </c>
+      <c r="D107" t="s">
+        <v>256</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F107" t="s">
+        <v>8</v>
+      </c>
+      <c r="G107" t="s">
+        <v>8</v>
+      </c>
+      <c r="H107" t="s">
+        <v>8</v>
+      </c>
+      <c r="I107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>115</v>
+      </c>
+      <c r="D108" t="s">
+        <v>181</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F108" t="s">
+        <v>8</v>
+      </c>
+      <c r="G108" t="s">
+        <v>8</v>
+      </c>
+      <c r="H108" t="s">
+        <v>8</v>
+      </c>
+      <c r="I108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>116</v>
+      </c>
+      <c r="D109" t="s">
+        <v>257</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F109" t="s">
+        <v>8</v>
+      </c>
+      <c r="G109" t="s">
+        <v>8</v>
+      </c>
+      <c r="H109" t="s">
+        <v>8</v>
+      </c>
+      <c r="I109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" t="s">
+        <v>117</v>
+      </c>
+      <c r="D110" t="s">
+        <v>258</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F110" t="s">
+        <v>8</v>
+      </c>
+      <c r="G110" t="s">
+        <v>8</v>
+      </c>
+      <c r="H110" t="s">
+        <v>8</v>
+      </c>
+      <c r="I110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" t="s">
+        <v>118</v>
+      </c>
+      <c r="D111" t="s">
+        <v>259</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="F111" t="s">
+        <v>8</v>
+      </c>
+      <c r="G111" t="s">
+        <v>8</v>
+      </c>
+      <c r="H111" t="s">
+        <v>8</v>
+      </c>
+      <c r="I111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" t="s">
+        <v>119</v>
+      </c>
+      <c r="D112" t="s">
+        <v>260</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F112" t="s">
+        <v>8</v>
+      </c>
+      <c r="G112" t="s">
+        <v>8</v>
+      </c>
+      <c r="H112" t="s">
+        <v>8</v>
+      </c>
+      <c r="I112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" t="s">
+        <v>120</v>
+      </c>
+      <c r="D113" t="s">
+        <v>261</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F113" t="s">
+        <v>8</v>
+      </c>
+      <c r="G113" t="s">
+        <v>8</v>
+      </c>
+      <c r="H113" t="s">
+        <v>8</v>
+      </c>
+      <c r="I113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" t="s">
+        <v>121</v>
+      </c>
+      <c r="D114" t="s">
+        <v>195</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F114" t="s">
+        <v>8</v>
+      </c>
+      <c r="G114" t="s">
+        <v>8</v>
+      </c>
+      <c r="H114" t="s">
+        <v>8</v>
+      </c>
+      <c r="I114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" t="s">
+        <v>122</v>
+      </c>
+      <c r="D115" t="s">
+        <v>195</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="F115" t="s">
+        <v>8</v>
+      </c>
+      <c r="G115" t="s">
+        <v>8</v>
+      </c>
+      <c r="H115" t="s">
+        <v>8</v>
+      </c>
+      <c r="I115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" t="s">
+        <v>123</v>
+      </c>
+      <c r="D116" t="s">
+        <v>195</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="F116" t="s">
+        <v>8</v>
+      </c>
+      <c r="G116" t="s">
+        <v>8</v>
+      </c>
+      <c r="H116" t="s">
+        <v>8</v>
+      </c>
+      <c r="I116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" t="s">
+        <v>124</v>
+      </c>
+      <c r="D117" t="s">
+        <v>262</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="F117" t="s">
+        <v>8</v>
+      </c>
+      <c r="G117" t="s">
+        <v>8</v>
+      </c>
+      <c r="H117" t="s">
+        <v>8</v>
+      </c>
+      <c r="I117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" t="s">
+        <v>125</v>
+      </c>
+      <c r="D118" t="s">
+        <v>263</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F118" t="s">
+        <v>8</v>
+      </c>
+      <c r="G118" t="s">
+        <v>8</v>
+      </c>
+      <c r="H118" t="s">
+        <v>8</v>
+      </c>
+      <c r="I118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" t="s">
+        <v>126</v>
+      </c>
+      <c r="D119" t="s">
+        <v>264</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="F119" t="s">
+        <v>8</v>
+      </c>
+      <c r="G119" t="s">
+        <v>8</v>
+      </c>
+      <c r="H119" t="s">
+        <v>8</v>
+      </c>
+      <c r="I119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" t="s">
+        <v>127</v>
+      </c>
+      <c r="D120" t="s">
+        <v>265</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F120" t="s">
+        <v>8</v>
+      </c>
+      <c r="G120" t="s">
+        <v>8</v>
+      </c>
+      <c r="H120" t="s">
+        <v>8</v>
+      </c>
+      <c r="I120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" t="s">
+        <v>128</v>
+      </c>
+      <c r="D121" t="s">
+        <v>266</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F121" t="s">
+        <v>8</v>
+      </c>
+      <c r="G121" t="s">
+        <v>8</v>
+      </c>
+      <c r="H121" t="s">
+        <v>8</v>
+      </c>
+      <c r="I121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" t="s">
+        <v>129</v>
+      </c>
+      <c r="D122" t="s">
+        <v>181</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F122" t="s">
+        <v>8</v>
+      </c>
+      <c r="G122" t="s">
+        <v>8</v>
+      </c>
+      <c r="H122" t="s">
+        <v>8</v>
+      </c>
+      <c r="I122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" t="s">
+        <v>130</v>
+      </c>
+      <c r="D123" t="s">
+        <v>199</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F123" t="s">
+        <v>8</v>
+      </c>
+      <c r="G123" t="s">
+        <v>8</v>
+      </c>
+      <c r="H123" t="s">
+        <v>8</v>
+      </c>
+      <c r="I123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" t="s">
+        <v>131</v>
+      </c>
+      <c r="D124" t="s">
+        <v>267</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="F124" t="s">
+        <v>8</v>
+      </c>
+      <c r="G124" t="s">
+        <v>8</v>
+      </c>
+      <c r="H124" t="s">
+        <v>8</v>
+      </c>
+      <c r="I124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" t="s">
+        <v>132</v>
+      </c>
+      <c r="D125" t="s">
+        <v>183</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F125" t="s">
+        <v>8</v>
+      </c>
+      <c r="G125" t="s">
+        <v>8</v>
+      </c>
+      <c r="H125" t="s">
+        <v>8</v>
+      </c>
+      <c r="I125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" t="s">
+        <v>133</v>
+      </c>
+      <c r="D126" t="s">
+        <v>268</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="F126" t="s">
+        <v>8</v>
+      </c>
+      <c r="G126" t="s">
+        <v>8</v>
+      </c>
+      <c r="H126" t="s">
+        <v>8</v>
+      </c>
+      <c r="I126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" t="s">
+        <v>134</v>
+      </c>
+      <c r="D127" t="s">
+        <v>200</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="F127" t="s">
+        <v>8</v>
+      </c>
+      <c r="G127" t="s">
+        <v>8</v>
+      </c>
+      <c r="H127" t="s">
+        <v>8</v>
+      </c>
+      <c r="I127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" t="s">
+        <v>135</v>
+      </c>
+      <c r="D128" t="s">
+        <v>269</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="F128" t="s">
+        <v>8</v>
+      </c>
+      <c r="G128" t="s">
+        <v>8</v>
+      </c>
+      <c r="H128" t="s">
+        <v>8</v>
+      </c>
+      <c r="I128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" t="s">
+        <v>136</v>
+      </c>
+      <c r="D129" t="s">
+        <v>248</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="F129" t="s">
+        <v>8</v>
+      </c>
+      <c r="G129" t="s">
+        <v>8</v>
+      </c>
+      <c r="H129" t="s">
+        <v>8</v>
+      </c>
+      <c r="I129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" t="s">
+        <v>137</v>
+      </c>
+      <c r="D130" t="s">
+        <v>270</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="F130" t="s">
+        <v>8</v>
+      </c>
+      <c r="G130" t="s">
+        <v>8</v>
+      </c>
+      <c r="H130" t="s">
+        <v>8</v>
+      </c>
+      <c r="I130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" t="s">
+        <v>138</v>
+      </c>
+      <c r="D131" t="s">
+        <v>271</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F131" t="s">
+        <v>8</v>
+      </c>
+      <c r="G131" t="s">
+        <v>8</v>
+      </c>
+      <c r="H131" t="s">
+        <v>8</v>
+      </c>
+      <c r="I131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" t="s">
+        <v>139</v>
+      </c>
+      <c r="D132" t="s">
+        <v>181</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F132" t="s">
+        <v>8</v>
+      </c>
+      <c r="G132" t="s">
+        <v>8</v>
+      </c>
+      <c r="H132" t="s">
+        <v>8</v>
+      </c>
+      <c r="I132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" t="s">
+        <v>140</v>
+      </c>
+      <c r="D133" t="s">
+        <v>272</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F133" t="s">
+        <v>8</v>
+      </c>
+      <c r="G133" t="s">
+        <v>8</v>
+      </c>
+      <c r="H133" t="s">
+        <v>8</v>
+      </c>
+      <c r="I133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" t="s">
+        <v>141</v>
+      </c>
+      <c r="D134" t="s">
+        <v>273</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F134" t="s">
+        <v>8</v>
+      </c>
+      <c r="G134" t="s">
+        <v>8</v>
+      </c>
+      <c r="H134" t="s">
+        <v>8</v>
+      </c>
+      <c r="I134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" t="s">
+        <v>142</v>
+      </c>
+      <c r="D135" t="s">
+        <v>274</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F135" t="s">
+        <v>8</v>
+      </c>
+      <c r="G135" t="s">
+        <v>8</v>
+      </c>
+      <c r="H135" t="s">
+        <v>8</v>
+      </c>
+      <c r="I135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" t="s">
+        <v>143</v>
+      </c>
+      <c r="D136" t="s">
+        <v>275</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="F136" t="s">
+        <v>8</v>
+      </c>
+      <c r="G136" t="s">
+        <v>8</v>
+      </c>
+      <c r="H136" t="s">
+        <v>8</v>
+      </c>
+      <c r="I136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" t="s">
+        <v>144</v>
+      </c>
+      <c r="D137" t="s">
+        <v>276</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="F137" t="s">
+        <v>8</v>
+      </c>
+      <c r="G137" t="s">
+        <v>8</v>
+      </c>
+      <c r="H137" t="s">
+        <v>8</v>
+      </c>
+      <c r="I137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" t="s">
+        <v>145</v>
+      </c>
+      <c r="D138" t="s">
+        <v>195</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="F138" t="s">
+        <v>8</v>
+      </c>
+      <c r="G138" t="s">
+        <v>8</v>
+      </c>
+      <c r="H138" t="s">
+        <v>8</v>
+      </c>
+      <c r="I138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" t="s">
+        <v>146</v>
+      </c>
+      <c r="D139" t="s">
+        <v>277</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="F139" t="s">
+        <v>8</v>
+      </c>
+      <c r="G139" t="s">
+        <v>8</v>
+      </c>
+      <c r="H139" t="s">
+        <v>8</v>
+      </c>
+      <c r="I139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" t="s">
+        <v>147</v>
+      </c>
+      <c r="D140" t="s">
+        <v>278</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="F140" t="s">
+        <v>8</v>
+      </c>
+      <c r="G140" t="s">
+        <v>8</v>
+      </c>
+      <c r="H140" t="s">
+        <v>8</v>
+      </c>
+      <c r="I140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" t="s">
+        <v>148</v>
+      </c>
+      <c r="D141" t="s">
+        <v>279</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="F141" t="s">
+        <v>8</v>
+      </c>
+      <c r="G141" t="s">
+        <v>8</v>
+      </c>
+      <c r="H141" t="s">
+        <v>8</v>
+      </c>
+      <c r="I141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" t="s">
+        <v>149</v>
+      </c>
+      <c r="D142" t="s">
+        <v>280</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F142" t="s">
+        <v>8</v>
+      </c>
+      <c r="G142" t="s">
+        <v>8</v>
+      </c>
+      <c r="H142" t="s">
+        <v>8</v>
+      </c>
+      <c r="I142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" t="s">
+        <v>150</v>
+      </c>
+      <c r="D143" t="s">
+        <v>281</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="F143" t="s">
+        <v>8</v>
+      </c>
+      <c r="G143" t="s">
+        <v>8</v>
+      </c>
+      <c r="H143" t="s">
+        <v>8</v>
+      </c>
+      <c r="I143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" t="s">
+        <v>151</v>
+      </c>
+      <c r="D144" t="s">
+        <v>282</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F144" t="s">
+        <v>8</v>
+      </c>
+      <c r="G144" t="s">
+        <v>8</v>
+      </c>
+      <c r="H144" t="s">
+        <v>8</v>
+      </c>
+      <c r="I144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" t="s">
+        <v>152</v>
+      </c>
+      <c r="D145" t="s">
+        <v>283</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="F145" t="s">
+        <v>8</v>
+      </c>
+      <c r="G145" t="s">
+        <v>8</v>
+      </c>
+      <c r="H145" t="s">
+        <v>8</v>
+      </c>
+      <c r="I145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" t="s">
+        <v>153</v>
+      </c>
+      <c r="D146" t="s">
+        <v>181</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="F146" t="s">
+        <v>8</v>
+      </c>
+      <c r="G146" t="s">
+        <v>8</v>
+      </c>
+      <c r="H146" t="s">
+        <v>8</v>
+      </c>
+      <c r="I146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" t="s">
+        <v>154</v>
+      </c>
+      <c r="D147" t="s">
+        <v>189</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F147" t="s">
+        <v>8</v>
+      </c>
+      <c r="G147" t="s">
+        <v>8</v>
+      </c>
+      <c r="H147" t="s">
+        <v>8</v>
+      </c>
+      <c r="I147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" t="s">
+        <v>155</v>
+      </c>
+      <c r="D148" t="s">
+        <v>201</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F148" t="s">
+        <v>8</v>
+      </c>
+      <c r="G148" t="s">
+        <v>8</v>
+      </c>
+      <c r="H148" t="s">
+        <v>8</v>
+      </c>
+      <c r="I148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" t="s">
+        <v>156</v>
+      </c>
+      <c r="D149" t="s">
+        <v>284</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F149" t="s">
+        <v>8</v>
+      </c>
+      <c r="G149" t="s">
+        <v>8</v>
+      </c>
+      <c r="H149" t="s">
+        <v>8</v>
+      </c>
+      <c r="I149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" t="s">
+        <v>157</v>
+      </c>
+      <c r="D150" t="s">
+        <v>285</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F150" t="s">
+        <v>8</v>
+      </c>
+      <c r="G150" t="s">
+        <v>8</v>
+      </c>
+      <c r="H150" t="s">
+        <v>8</v>
+      </c>
+      <c r="I150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" t="s">
+        <v>158</v>
+      </c>
+      <c r="D151" t="s">
+        <v>286</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="F151" t="s">
+        <v>8</v>
+      </c>
+      <c r="G151" t="s">
+        <v>8</v>
+      </c>
+      <c r="H151" t="s">
+        <v>8</v>
+      </c>
+      <c r="I151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" t="s">
+        <v>159</v>
+      </c>
+      <c r="D152" t="s">
+        <v>229</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F152" t="s">
+        <v>8</v>
+      </c>
+      <c r="G152" t="s">
+        <v>8</v>
+      </c>
+      <c r="H152" t="s">
+        <v>8</v>
+      </c>
+      <c r="I152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" t="s">
+        <v>160</v>
+      </c>
+      <c r="D153" t="s">
+        <v>287</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="F153" t="s">
+        <v>8</v>
+      </c>
+      <c r="G153" t="s">
+        <v>8</v>
+      </c>
+      <c r="H153" t="s">
+        <v>8</v>
+      </c>
+      <c r="I153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" t="s">
+        <v>161</v>
+      </c>
+      <c r="D154" t="s">
+        <v>288</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="F154" t="s">
+        <v>8</v>
+      </c>
+      <c r="G154" t="s">
+        <v>8</v>
+      </c>
+      <c r="H154" t="s">
+        <v>8</v>
+      </c>
+      <c r="I154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" t="s">
+        <v>162</v>
+      </c>
+      <c r="D155" t="s">
+        <v>289</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F155" t="s">
+        <v>8</v>
+      </c>
+      <c r="G155" t="s">
+        <v>8</v>
+      </c>
+      <c r="H155" t="s">
+        <v>8</v>
+      </c>
+      <c r="I155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" t="s">
+        <v>163</v>
+      </c>
+      <c r="D156" t="s">
+        <v>290</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="F156" t="s">
+        <v>8</v>
+      </c>
+      <c r="G156" t="s">
+        <v>8</v>
+      </c>
+      <c r="H156" t="s">
+        <v>8</v>
+      </c>
+      <c r="I156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" t="s">
+        <v>164</v>
+      </c>
+      <c r="D157" t="s">
+        <v>291</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F157" t="s">
+        <v>8</v>
+      </c>
+      <c r="G157" t="s">
+        <v>8</v>
+      </c>
+      <c r="H157" t="s">
+        <v>8</v>
+      </c>
+      <c r="I157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" t="s">
+        <v>165</v>
+      </c>
+      <c r="D158" t="s">
+        <v>200</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F158" t="s">
+        <v>8</v>
+      </c>
+      <c r="G158" t="s">
+        <v>8</v>
+      </c>
+      <c r="H158" t="s">
+        <v>8</v>
+      </c>
+      <c r="I158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" t="s">
+        <v>166</v>
+      </c>
+      <c r="D159" t="s">
+        <v>292</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F159" t="s">
+        <v>8</v>
+      </c>
+      <c r="G159" t="s">
+        <v>8</v>
+      </c>
+      <c r="H159" t="s">
+        <v>8</v>
+      </c>
+      <c r="I159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" t="s">
+        <v>167</v>
+      </c>
+      <c r="D160" t="s">
+        <v>293</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="F160" t="s">
+        <v>8</v>
+      </c>
+      <c r="G160" t="s">
+        <v>8</v>
+      </c>
+      <c r="H160" t="s">
+        <v>8</v>
+      </c>
+      <c r="I160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" t="s">
+        <v>168</v>
+      </c>
+      <c r="D161" t="s">
+        <v>294</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="F161" t="s">
+        <v>8</v>
+      </c>
+      <c r="G161" t="s">
+        <v>8</v>
+      </c>
+      <c r="H161" t="s">
+        <v>8</v>
+      </c>
+      <c r="I161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" t="s">
+        <v>169</v>
+      </c>
+      <c r="D162" t="s">
+        <v>295</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F162" t="s">
+        <v>8</v>
+      </c>
+      <c r="G162" t="s">
+        <v>8</v>
+      </c>
+      <c r="H162" t="s">
+        <v>8</v>
+      </c>
+      <c r="I162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" t="s">
+        <v>170</v>
+      </c>
+      <c r="D163" t="s">
+        <v>296</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F163" t="s">
+        <v>8</v>
+      </c>
+      <c r="G163" t="s">
+        <v>8</v>
+      </c>
+      <c r="H163" t="s">
+        <v>8</v>
+      </c>
+      <c r="I163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" t="s">
+        <v>171</v>
+      </c>
+      <c r="D164" t="s">
+        <v>297</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="F164" t="s">
+        <v>8</v>
+      </c>
+      <c r="G164" t="s">
+        <v>8</v>
+      </c>
+      <c r="H164" t="s">
+        <v>8</v>
+      </c>
+      <c r="I164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" t="s">
+        <v>172</v>
+      </c>
+      <c r="D165" t="s">
+        <v>195</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="F165" t="s">
+        <v>8</v>
+      </c>
+      <c r="G165" t="s">
+        <v>8</v>
+      </c>
+      <c r="H165" t="s">
+        <v>8</v>
+      </c>
+      <c r="I165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166" t="s">
+        <v>173</v>
+      </c>
+      <c r="D166" t="s">
+        <v>298</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F166" t="s">
+        <v>8</v>
+      </c>
+      <c r="G166" t="s">
+        <v>8</v>
+      </c>
+      <c r="H166" t="s">
+        <v>8</v>
+      </c>
+      <c r="I166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" t="s">
+        <v>174</v>
+      </c>
+      <c r="D167" t="s">
+        <v>299</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F167" t="s">
+        <v>8</v>
+      </c>
+      <c r="G167" t="s">
+        <v>8</v>
+      </c>
+      <c r="H167" t="s">
+        <v>8</v>
+      </c>
+      <c r="I167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" t="s">
+        <v>175</v>
+      </c>
+      <c r="D168" t="s">
+        <v>183</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="F168" t="s">
+        <v>8</v>
+      </c>
+      <c r="G168" t="s">
+        <v>8</v>
+      </c>
+      <c r="H168" t="s">
+        <v>8</v>
+      </c>
+      <c r="I168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" t="s">
+        <v>176</v>
+      </c>
+      <c r="D169" t="s">
+        <v>300</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="F169" t="s">
+        <v>8</v>
+      </c>
+      <c r="G169" t="s">
+        <v>8</v>
+      </c>
+      <c r="H169" t="s">
+        <v>8</v>
+      </c>
+      <c r="I169" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
+    <hyperlink ref="E11" r:id="rId10"/>
+    <hyperlink ref="E12" r:id="rId11"/>
+    <hyperlink ref="E13" r:id="rId12"/>
+    <hyperlink ref="E14" r:id="rId13"/>
+    <hyperlink ref="E15" r:id="rId14"/>
+    <hyperlink ref="E16" r:id="rId15"/>
+    <hyperlink ref="E17" r:id="rId16"/>
+    <hyperlink ref="E18" r:id="rId17"/>
+    <hyperlink ref="E19" r:id="rId18"/>
+    <hyperlink ref="E20" r:id="rId19"/>
+    <hyperlink ref="E21" r:id="rId20"/>
+    <hyperlink ref="E22" r:id="rId21"/>
+    <hyperlink ref="E23" r:id="rId22"/>
+    <hyperlink ref="E24" r:id="rId23"/>
+    <hyperlink ref="E25" r:id="rId24"/>
+    <hyperlink ref="E26" r:id="rId25"/>
+    <hyperlink ref="E27" r:id="rId26"/>
+    <hyperlink ref="E28" r:id="rId27"/>
+    <hyperlink ref="E29" r:id="rId28"/>
+    <hyperlink ref="E30" r:id="rId29"/>
+    <hyperlink ref="E31" r:id="rId30"/>
+    <hyperlink ref="E32" r:id="rId31"/>
+    <hyperlink ref="E33" r:id="rId32"/>
+    <hyperlink ref="E34" r:id="rId33"/>
+    <hyperlink ref="E35" r:id="rId34"/>
+    <hyperlink ref="E36" r:id="rId35"/>
+    <hyperlink ref="E37" r:id="rId36"/>
+    <hyperlink ref="E38" r:id="rId37"/>
+    <hyperlink ref="E39" r:id="rId38"/>
+    <hyperlink ref="E40" r:id="rId39"/>
+    <hyperlink ref="E41" r:id="rId40"/>
+    <hyperlink ref="E42" r:id="rId41"/>
+    <hyperlink ref="E43" r:id="rId42"/>
+    <hyperlink ref="E44" r:id="rId43"/>
+    <hyperlink ref="E45" r:id="rId44"/>
+    <hyperlink ref="E46" r:id="rId45"/>
+    <hyperlink ref="E47" r:id="rId46"/>
+    <hyperlink ref="E48" r:id="rId47"/>
+    <hyperlink ref="E49" r:id="rId48"/>
+    <hyperlink ref="E50" r:id="rId49"/>
+    <hyperlink ref="E51" r:id="rId50"/>
+    <hyperlink ref="E52" r:id="rId51"/>
+    <hyperlink ref="E53" r:id="rId52"/>
+    <hyperlink ref="E54" r:id="rId53"/>
+    <hyperlink ref="E55" r:id="rId54"/>
+    <hyperlink ref="E56" r:id="rId55"/>
+    <hyperlink ref="E57" r:id="rId56"/>
+    <hyperlink ref="E58" r:id="rId57"/>
+    <hyperlink ref="E59" r:id="rId58"/>
+    <hyperlink ref="E60" r:id="rId59"/>
+    <hyperlink ref="E61" r:id="rId60"/>
+    <hyperlink ref="E62" r:id="rId61"/>
+    <hyperlink ref="E63" r:id="rId62"/>
+    <hyperlink ref="E64" r:id="rId63"/>
+    <hyperlink ref="E65" r:id="rId64"/>
+    <hyperlink ref="E66" r:id="rId65"/>
+    <hyperlink ref="E67" r:id="rId66"/>
+    <hyperlink ref="E68" r:id="rId67"/>
+    <hyperlink ref="E69" r:id="rId68"/>
+    <hyperlink ref="E70" r:id="rId69"/>
+    <hyperlink ref="E71" r:id="rId70"/>
+    <hyperlink ref="E72" r:id="rId71"/>
+    <hyperlink ref="E73" r:id="rId72"/>
+    <hyperlink ref="E74" r:id="rId73"/>
+    <hyperlink ref="E75" r:id="rId74"/>
+    <hyperlink ref="E76" r:id="rId75"/>
+    <hyperlink ref="E77" r:id="rId76"/>
+    <hyperlink ref="E78" r:id="rId77"/>
+    <hyperlink ref="E79" r:id="rId78"/>
+    <hyperlink ref="E80" r:id="rId79"/>
+    <hyperlink ref="E81" r:id="rId80"/>
+    <hyperlink ref="E82" r:id="rId81"/>
+    <hyperlink ref="E83" r:id="rId82"/>
+    <hyperlink ref="E84" r:id="rId83"/>
+    <hyperlink ref="E85" r:id="rId84"/>
+    <hyperlink ref="E86" r:id="rId85"/>
+    <hyperlink ref="E87" r:id="rId86"/>
+    <hyperlink ref="E88" r:id="rId87"/>
+    <hyperlink ref="E89" r:id="rId88"/>
+    <hyperlink ref="E90" r:id="rId89"/>
+    <hyperlink ref="E91" r:id="rId90"/>
+    <hyperlink ref="E92" r:id="rId91"/>
+    <hyperlink ref="E93" r:id="rId92"/>
+    <hyperlink ref="E94" r:id="rId93"/>
+    <hyperlink ref="E95" r:id="rId94"/>
+    <hyperlink ref="E96" r:id="rId95"/>
+    <hyperlink ref="E97" r:id="rId96"/>
+    <hyperlink ref="E98" r:id="rId97"/>
+    <hyperlink ref="E99" r:id="rId98"/>
+    <hyperlink ref="E100" r:id="rId99"/>
+    <hyperlink ref="E101" r:id="rId100"/>
+    <hyperlink ref="E102" r:id="rId101"/>
+    <hyperlink ref="E103" r:id="rId102"/>
+    <hyperlink ref="E104" r:id="rId103"/>
+    <hyperlink ref="E105" r:id="rId104"/>
+    <hyperlink ref="E106" r:id="rId105"/>
+    <hyperlink ref="E107" r:id="rId106"/>
+    <hyperlink ref="E108" r:id="rId107"/>
+    <hyperlink ref="E109" r:id="rId108"/>
+    <hyperlink ref="E110" r:id="rId109"/>
+    <hyperlink ref="E111" r:id="rId110"/>
+    <hyperlink ref="E112" r:id="rId111"/>
+    <hyperlink ref="E113" r:id="rId112"/>
+    <hyperlink ref="E114" r:id="rId113"/>
+    <hyperlink ref="E115" r:id="rId114"/>
+    <hyperlink ref="E116" r:id="rId115"/>
+    <hyperlink ref="E117" r:id="rId116"/>
+    <hyperlink ref="E118" r:id="rId117"/>
+    <hyperlink ref="E119" r:id="rId118"/>
+    <hyperlink ref="E120" r:id="rId119"/>
+    <hyperlink ref="E121" r:id="rId120"/>
+    <hyperlink ref="E122" r:id="rId121"/>
+    <hyperlink ref="E123" r:id="rId122"/>
+    <hyperlink ref="E124" r:id="rId123"/>
+    <hyperlink ref="E125" r:id="rId124"/>
+    <hyperlink ref="E126" r:id="rId125"/>
+    <hyperlink ref="E127" r:id="rId126"/>
+    <hyperlink ref="E128" r:id="rId127"/>
+    <hyperlink ref="E129" r:id="rId128"/>
+    <hyperlink ref="E130" r:id="rId129"/>
+    <hyperlink ref="E131" r:id="rId130"/>
+    <hyperlink ref="E132" r:id="rId131"/>
+    <hyperlink ref="E133" r:id="rId132"/>
+    <hyperlink ref="E134" r:id="rId133"/>
+    <hyperlink ref="E135" r:id="rId134"/>
+    <hyperlink ref="E136" r:id="rId135"/>
+    <hyperlink ref="E137" r:id="rId136"/>
+    <hyperlink ref="E138" r:id="rId137"/>
+    <hyperlink ref="E139" r:id="rId138"/>
+    <hyperlink ref="E140" r:id="rId139"/>
+    <hyperlink ref="E141" r:id="rId140"/>
+    <hyperlink ref="E142" r:id="rId141"/>
+    <hyperlink ref="E143" r:id="rId142"/>
+    <hyperlink ref="E144" r:id="rId143"/>
+    <hyperlink ref="E145" r:id="rId144"/>
+    <hyperlink ref="E146" r:id="rId145"/>
+    <hyperlink ref="E147" r:id="rId146"/>
+    <hyperlink ref="E148" r:id="rId147"/>
+    <hyperlink ref="E149" r:id="rId148"/>
+    <hyperlink ref="E150" r:id="rId149"/>
+    <hyperlink ref="E151" r:id="rId150"/>
+    <hyperlink ref="E152" r:id="rId151"/>
+    <hyperlink ref="E153" r:id="rId152"/>
+    <hyperlink ref="E154" r:id="rId153"/>
+    <hyperlink ref="E155" r:id="rId154"/>
+    <hyperlink ref="E156" r:id="rId155"/>
+    <hyperlink ref="E157" r:id="rId156"/>
+    <hyperlink ref="E158" r:id="rId157"/>
+    <hyperlink ref="E159" r:id="rId158"/>
+    <hyperlink ref="E160" r:id="rId159"/>
+    <hyperlink ref="E161" r:id="rId160"/>
+    <hyperlink ref="E162" r:id="rId161"/>
+    <hyperlink ref="E163" r:id="rId162"/>
+    <hyperlink ref="E164" r:id="rId163"/>
+    <hyperlink ref="E165" r:id="rId164"/>
+    <hyperlink ref="E166" r:id="rId165"/>
+    <hyperlink ref="E167" r:id="rId166"/>
+    <hyperlink ref="E168" r:id="rId167"/>
+    <hyperlink ref="E169" r:id="rId168"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>